--- a/Code/Results/Cases/Case_3_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.99389638600071</v>
+        <v>21.99389638600073</v>
       </c>
       <c r="C2">
-        <v>9.075030747414223</v>
+        <v>9.075030747414235</v>
       </c>
       <c r="D2">
-        <v>9.731260607467734</v>
+        <v>9.731260607467702</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.41034130176057</v>
+        <v>63.41034130176067</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>17.37195551756097</v>
+        <v>17.37195551756095</v>
       </c>
       <c r="K2">
-        <v>30.15288139266379</v>
+        <v>30.15288139266386</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.30510069383539</v>
+        <v>20.30510069383526</v>
       </c>
       <c r="C3">
-        <v>8.469508832736826</v>
+        <v>8.46950883273707</v>
       </c>
       <c r="D3">
-        <v>9.226378425403162</v>
+        <v>9.226378425403087</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.32157935910337</v>
+        <v>59.32157935910312</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>16.08322850411097</v>
+        <v>16.0832285041109</v>
       </c>
       <c r="K3">
-        <v>27.78430706781347</v>
+        <v>27.78430706781337</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.22893519670156</v>
+        <v>19.22893519670153</v>
       </c>
       <c r="C4">
-        <v>8.084488419923836</v>
+        <v>8.084488419923709</v>
       </c>
       <c r="D4">
-        <v>8.91211794902476</v>
+        <v>8.912117949024804</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.7448297255202</v>
+        <v>56.74482972552033</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.2615927606475</v>
+        <v>15.26159276064746</v>
       </c>
       <c r="K4">
-        <v>26.28514513072305</v>
+        <v>26.28514513072304</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.7799868442224</v>
+        <v>18.77998684422256</v>
       </c>
       <c r="C5">
-        <v>7.924103754031203</v>
+        <v>7.924103754030852</v>
       </c>
       <c r="D5">
-        <v>8.782918341394049</v>
+        <v>8.782918341393914</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.67771281497422</v>
+        <v>55.67771281497441</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14.9187248528449</v>
+        <v>14.91872485284498</v>
       </c>
       <c r="K5">
-        <v>25.66186957007519</v>
+        <v>25.66186957007529</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.70479677474817</v>
+        <v>18.70479677474793</v>
       </c>
       <c r="C6">
-        <v>7.897257299282505</v>
+        <v>7.897257299282442</v>
       </c>
       <c r="D6">
-        <v>8.761395058492308</v>
+        <v>8.761395058492369</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.49948153217675</v>
+        <v>55.49948153217667</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14.86129494458381</v>
+        <v>14.86129494458357</v>
       </c>
       <c r="K6">
-        <v>25.55760033859262</v>
+        <v>25.55760033859256</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.2229232950319</v>
+        <v>19.222923295032</v>
       </c>
       <c r="C7">
-        <v>8.082339722036433</v>
+        <v>8.082339722036469</v>
       </c>
       <c r="D7">
-        <v>8.910380175536242</v>
+        <v>8.910380175536286</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.73050766017029</v>
+        <v>56.73050766017066</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.25700180416833</v>
+        <v>15.25700180416842</v>
       </c>
       <c r="K7">
-        <v>26.27679075517758</v>
+        <v>26.27679075517754</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.41939651996806</v>
+        <v>21.41939651996809</v>
       </c>
       <c r="C8">
-        <v>8.86888765148306</v>
+        <v>8.868887651483275</v>
       </c>
       <c r="D8">
-        <v>9.558010504888989</v>
+        <v>9.558010504888983</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.01393529766347</v>
+        <v>62.01393529766352</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>16.9336361643124</v>
+        <v>16.93363616431247</v>
       </c>
       <c r="K8">
-        <v>29.34480363698893</v>
+        <v>29.34480363698896</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.44433387038013</v>
+        <v>25.44433387038017</v>
       </c>
       <c r="C9">
-        <v>10.31513567799117</v>
+        <v>10.3151356779913</v>
       </c>
       <c r="D9">
-        <v>10.79945462857079</v>
+        <v>10.79945462857071</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.88583405188517</v>
+        <v>71.88583405188498</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>20.00275806431754</v>
+        <v>20.00275806431764</v>
       </c>
       <c r="K9">
-        <v>35.06457602826826</v>
+        <v>35.06457602826834</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.27989535820473</v>
+        <v>28.27989535820467</v>
       </c>
       <c r="C10">
-        <v>11.33428104385947</v>
+        <v>11.33428104385932</v>
       </c>
       <c r="D10">
-        <v>11.70579383354471</v>
+        <v>11.70579383354474</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.92257933788028</v>
+        <v>78.92257933788039</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22.16239729098026</v>
+        <v>22.16239729098018</v>
       </c>
       <c r="K10">
-        <v>39.19217808613119</v>
+        <v>39.19217808613099</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.55890337471744</v>
+        <v>29.55890337471735</v>
       </c>
       <c r="C11">
-        <v>11.79298533911337</v>
+        <v>11.79298533911335</v>
       </c>
       <c r="D11">
-        <v>12.12107537847246</v>
+        <v>12.12107537847233</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>82.1060947567602</v>
+        <v>82.1060947567599</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>23.13570220531301</v>
+        <v>23.13570220531293</v>
       </c>
       <c r="K11">
-        <v>41.08743965910306</v>
+        <v>41.08743965910309</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.0434230185783</v>
+        <v>30.04342301857826</v>
       </c>
       <c r="C12">
-        <v>11.96646852003978</v>
+        <v>11.96646852003968</v>
       </c>
       <c r="D12">
-        <v>12.27927701515582</v>
+        <v>12.27927701515587</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>83.31871549228188</v>
+        <v>83.31871549228215</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>23.50425799420037</v>
+        <v>23.50425799420027</v>
       </c>
       <c r="K12">
-        <v>41.81165375111242</v>
+        <v>41.81165375111237</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.93903100296223</v>
+        <v>29.93903100296222</v>
       </c>
       <c r="C13">
-        <v>11.92910642510959</v>
+        <v>11.92910642510956</v>
       </c>
       <c r="D13">
-        <v>12.2451533719392</v>
+        <v>12.24515337193929</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>83.05266328677347</v>
+        <v>83.05266328677368</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>23.42485866587046</v>
+        <v>23.42485866587043</v>
       </c>
       <c r="K13">
         <v>41.65531303251983</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.59874940180341</v>
+        <v>29.5987494018033</v>
       </c>
       <c r="C14">
-        <v>11.80725904762344</v>
+        <v>11.80725904762319</v>
       </c>
       <c r="D14">
-        <v>12.13406823056209</v>
+        <v>12.13406823056213</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>82.20531223474312</v>
+        <v>82.20531223474278</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>23.16601497813852</v>
+        <v>23.16601497813838</v>
       </c>
       <c r="K14">
-        <v>41.14686283747342</v>
+        <v>41.14686283747345</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.39040246509606</v>
+        <v>29.39040246509578</v>
       </c>
       <c r="C15">
-        <v>11.73261213472359</v>
+        <v>11.73261213472351</v>
       </c>
       <c r="D15">
-        <v>12.06616651445362</v>
+        <v>12.06616651445347</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81.68654002871173</v>
+        <v>81.68654002871116</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>23.00750895875595</v>
+        <v>23.0075089587557</v>
       </c>
       <c r="K15">
-        <v>40.83641261306285</v>
+        <v>40.83641261306264</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>28.19622850106413</v>
       </c>
       <c r="C16">
-        <v>11.30424391157743</v>
+        <v>11.30424391157738</v>
       </c>
       <c r="D16">
-        <v>11.67875441860613</v>
+        <v>11.67875441860631</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.71445225771562</v>
+        <v>78.71445225771635</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>22.09870873335587</v>
+        <v>22.09870873335582</v>
       </c>
       <c r="K16">
         <v>39.06898471347414</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.46194763725244</v>
+        <v>27.46194763725234</v>
       </c>
       <c r="C17">
-        <v>11.04050822788597</v>
+        <v>11.04050822788607</v>
       </c>
       <c r="D17">
-        <v>11.4421691469829</v>
+        <v>11.44216914698303</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.88885265436426</v>
+        <v>76.88885265436475</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>21.53966739109443</v>
+        <v>21.53966739109437</v>
       </c>
       <c r="K17">
-        <v>37.99169075098638</v>
+        <v>37.99169075098636</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.03845334620729</v>
+        <v>27.03845334620727</v>
       </c>
       <c r="C18">
-        <v>10.88831719919773</v>
+        <v>10.88831719919798</v>
       </c>
       <c r="D18">
-        <v>11.30633326246355</v>
+        <v>11.30633326246343</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.83689955429989</v>
+        <v>75.83689955429949</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>21.21716744799445</v>
+        <v>21.21716744799455</v>
       </c>
       <c r="K18">
-        <v>37.37341718116964</v>
+        <v>37.37341718116951</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.8948213712111</v>
+        <v>26.89482137121121</v>
       </c>
       <c r="C19">
-        <v>10.83668950005124</v>
+        <v>10.83668950005118</v>
       </c>
       <c r="D19">
-        <v>11.2603700436564</v>
+        <v>11.26037004365645</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.48030728669798</v>
+        <v>75.48030728669833</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>21.10777672395324</v>
+        <v>21.10777672395335</v>
       </c>
       <c r="K19">
-        <v>37.16421174462971</v>
+        <v>37.1642117446298</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.5402215307546</v>
+        <v>27.54022153075456</v>
       </c>
       <c r="C20">
-        <v>11.06863163794311</v>
+        <v>11.06863163794349</v>
       </c>
       <c r="D20">
-        <v>11.46732584197315</v>
+        <v>11.4673258419731</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.08336719499351</v>
+        <v>77.08336719499304</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>21.59926878244982</v>
+        <v>21.59926878244983</v>
       </c>
       <c r="K20">
-        <v>38.10620515122265</v>
+        <v>38.10620515122253</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.69867665205069</v>
+        <v>29.69867665205044</v>
       </c>
       <c r="C21">
-        <v>11.84305000213243</v>
+        <v>11.84305000213244</v>
       </c>
       <c r="D21">
-        <v>12.16666603638824</v>
+        <v>12.16666603638817</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>82.45413867060149</v>
+        <v>82.45413867060124</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>23.2420317558723</v>
+        <v>23.24203175587215</v>
       </c>
       <c r="K21">
-        <v>41.29599150590389</v>
+        <v>41.29599150590386</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.11168647376815</v>
+        <v>31.1116864737682</v>
       </c>
       <c r="C22">
-        <v>12.34822824569691</v>
+        <v>12.34822824569678</v>
       </c>
       <c r="D22">
-        <v>12.62960645162857</v>
+        <v>12.62960645162861</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>86.05310983573872</v>
+        <v>86.05310983573881</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>24.31650550053297</v>
+        <v>24.31650550053293</v>
       </c>
       <c r="K22">
-        <v>43.42166211412429</v>
+        <v>43.42166211412421</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.35659266093558</v>
+        <v>30.3565926609355</v>
       </c>
       <c r="C23">
-        <v>12.07849676412114</v>
+        <v>12.07849676412101</v>
       </c>
       <c r="D23">
-        <v>12.38176819788293</v>
+        <v>12.3817681978828</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>84.12069246134153</v>
+        <v>84.12069246134133</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>23.74242475423751</v>
+        <v>23.74242475423747</v>
       </c>
       <c r="K23">
-        <v>42.28169903776083</v>
+        <v>42.28169903776082</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.50483822221743</v>
+        <v>27.5048382222173</v>
       </c>
       <c r="C24">
-        <v>11.05591884196389</v>
+        <v>11.05591884196396</v>
       </c>
       <c r="D24">
-        <v>11.45595197537635</v>
+        <v>11.45595197537621</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.99543486963661</v>
+        <v>76.99543486963587</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>21.57232651105175</v>
+        <v>21.57232651105168</v>
       </c>
       <c r="K24">
-        <v>38.05443011739067</v>
+        <v>38.05443011739058</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.38113623475603</v>
+        <v>24.38113623475608</v>
       </c>
       <c r="C25">
-        <v>9.932795378170828</v>
+        <v>9.932795378170981</v>
       </c>
       <c r="D25">
-        <v>10.46571775751382</v>
+        <v>10.46571775751389</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.26086885827421</v>
+        <v>69.26086885827475</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>19.192434936793</v>
+        <v>19.1924349367931</v>
       </c>
       <c r="K25">
-        <v>33.53953999332625</v>
+        <v>33.53953999332629</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.99389638600073</v>
+        <v>21.99389638600071</v>
       </c>
       <c r="C2">
-        <v>9.075030747414235</v>
+        <v>9.075030747414223</v>
       </c>
       <c r="D2">
-        <v>9.731260607467702</v>
+        <v>9.731260607467734</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.41034130176067</v>
+        <v>63.41034130176057</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>17.37195551756095</v>
+        <v>17.37195551756097</v>
       </c>
       <c r="K2">
-        <v>30.15288139266386</v>
+        <v>30.15288139266379</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.30510069383526</v>
+        <v>20.30510069383539</v>
       </c>
       <c r="C3">
-        <v>8.46950883273707</v>
+        <v>8.469508832736826</v>
       </c>
       <c r="D3">
-        <v>9.226378425403087</v>
+        <v>9.226378425403162</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.32157935910312</v>
+        <v>59.32157935910337</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>16.0832285041109</v>
+        <v>16.08322850411097</v>
       </c>
       <c r="K3">
-        <v>27.78430706781337</v>
+        <v>27.78430706781347</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.22893519670153</v>
+        <v>19.22893519670156</v>
       </c>
       <c r="C4">
-        <v>8.084488419923709</v>
+        <v>8.084488419923836</v>
       </c>
       <c r="D4">
-        <v>8.912117949024804</v>
+        <v>8.91211794902476</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.74482972552033</v>
+        <v>56.7448297255202</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.26159276064746</v>
+        <v>15.2615927606475</v>
       </c>
       <c r="K4">
-        <v>26.28514513072304</v>
+        <v>26.28514513072305</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.77998684422256</v>
+        <v>18.7799868442224</v>
       </c>
       <c r="C5">
-        <v>7.924103754030852</v>
+        <v>7.924103754031203</v>
       </c>
       <c r="D5">
-        <v>8.782918341393914</v>
+        <v>8.782918341394049</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.67771281497441</v>
+        <v>55.67771281497422</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14.91872485284498</v>
+        <v>14.9187248528449</v>
       </c>
       <c r="K5">
-        <v>25.66186957007529</v>
+        <v>25.66186957007519</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.70479677474793</v>
+        <v>18.70479677474817</v>
       </c>
       <c r="C6">
-        <v>7.897257299282442</v>
+        <v>7.897257299282505</v>
       </c>
       <c r="D6">
-        <v>8.761395058492369</v>
+        <v>8.761395058492308</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.49948153217667</v>
+        <v>55.49948153217675</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14.86129494458357</v>
+        <v>14.86129494458381</v>
       </c>
       <c r="K6">
-        <v>25.55760033859256</v>
+        <v>25.55760033859262</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.222923295032</v>
+        <v>19.2229232950319</v>
       </c>
       <c r="C7">
-        <v>8.082339722036469</v>
+        <v>8.082339722036433</v>
       </c>
       <c r="D7">
-        <v>8.910380175536286</v>
+        <v>8.910380175536242</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.73050766017066</v>
+        <v>56.73050766017029</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.25700180416842</v>
+        <v>15.25700180416833</v>
       </c>
       <c r="K7">
-        <v>26.27679075517754</v>
+        <v>26.27679075517758</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.41939651996809</v>
+        <v>21.41939651996806</v>
       </c>
       <c r="C8">
-        <v>8.868887651483275</v>
+        <v>8.86888765148306</v>
       </c>
       <c r="D8">
-        <v>9.558010504888983</v>
+        <v>9.558010504888989</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.01393529766352</v>
+        <v>62.01393529766347</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>16.93363616431247</v>
+        <v>16.9336361643124</v>
       </c>
       <c r="K8">
-        <v>29.34480363698896</v>
+        <v>29.34480363698893</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.44433387038017</v>
+        <v>25.44433387038013</v>
       </c>
       <c r="C9">
-        <v>10.3151356779913</v>
+        <v>10.31513567799117</v>
       </c>
       <c r="D9">
-        <v>10.79945462857071</v>
+        <v>10.79945462857079</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.88583405188498</v>
+        <v>71.88583405188517</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>20.00275806431764</v>
+        <v>20.00275806431754</v>
       </c>
       <c r="K9">
-        <v>35.06457602826834</v>
+        <v>35.06457602826826</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.27989535820467</v>
+        <v>28.27989535820473</v>
       </c>
       <c r="C10">
-        <v>11.33428104385932</v>
+        <v>11.33428104385947</v>
       </c>
       <c r="D10">
-        <v>11.70579383354474</v>
+        <v>11.70579383354471</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.92257933788039</v>
+        <v>78.92257933788028</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22.16239729098018</v>
+        <v>22.16239729098026</v>
       </c>
       <c r="K10">
-        <v>39.19217808613099</v>
+        <v>39.19217808613119</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.55890337471735</v>
+        <v>29.55890337471744</v>
       </c>
       <c r="C11">
-        <v>11.79298533911335</v>
+        <v>11.79298533911337</v>
       </c>
       <c r="D11">
-        <v>12.12107537847233</v>
+        <v>12.12107537847246</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>82.1060947567599</v>
+        <v>82.1060947567602</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>23.13570220531293</v>
+        <v>23.13570220531301</v>
       </c>
       <c r="K11">
-        <v>41.08743965910309</v>
+        <v>41.08743965910306</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.04342301857826</v>
+        <v>30.0434230185783</v>
       </c>
       <c r="C12">
-        <v>11.96646852003968</v>
+        <v>11.96646852003978</v>
       </c>
       <c r="D12">
-        <v>12.27927701515587</v>
+        <v>12.27927701515582</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>83.31871549228215</v>
+        <v>83.31871549228188</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>23.50425799420027</v>
+        <v>23.50425799420037</v>
       </c>
       <c r="K12">
-        <v>41.81165375111237</v>
+        <v>41.81165375111242</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.93903100296222</v>
+        <v>29.93903100296223</v>
       </c>
       <c r="C13">
-        <v>11.92910642510956</v>
+        <v>11.92910642510959</v>
       </c>
       <c r="D13">
-        <v>12.24515337193929</v>
+        <v>12.2451533719392</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>83.05266328677368</v>
+        <v>83.05266328677347</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>23.42485866587043</v>
+        <v>23.42485866587046</v>
       </c>
       <c r="K13">
         <v>41.65531303251983</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.5987494018033</v>
+        <v>29.59874940180341</v>
       </c>
       <c r="C14">
-        <v>11.80725904762319</v>
+        <v>11.80725904762344</v>
       </c>
       <c r="D14">
-        <v>12.13406823056213</v>
+        <v>12.13406823056209</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>82.20531223474278</v>
+        <v>82.20531223474312</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>23.16601497813838</v>
+        <v>23.16601497813852</v>
       </c>
       <c r="K14">
-        <v>41.14686283747345</v>
+        <v>41.14686283747342</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.39040246509578</v>
+        <v>29.39040246509606</v>
       </c>
       <c r="C15">
-        <v>11.73261213472351</v>
+        <v>11.73261213472359</v>
       </c>
       <c r="D15">
-        <v>12.06616651445347</v>
+        <v>12.06616651445362</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81.68654002871116</v>
+        <v>81.68654002871173</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>23.0075089587557</v>
+        <v>23.00750895875595</v>
       </c>
       <c r="K15">
-        <v>40.83641261306264</v>
+        <v>40.83641261306285</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>28.19622850106413</v>
       </c>
       <c r="C16">
-        <v>11.30424391157738</v>
+        <v>11.30424391157743</v>
       </c>
       <c r="D16">
-        <v>11.67875441860631</v>
+        <v>11.67875441860613</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.71445225771635</v>
+        <v>78.71445225771562</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>22.09870873335582</v>
+        <v>22.09870873335587</v>
       </c>
       <c r="K16">
         <v>39.06898471347414</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.46194763725234</v>
+        <v>27.46194763725244</v>
       </c>
       <c r="C17">
-        <v>11.04050822788607</v>
+        <v>11.04050822788597</v>
       </c>
       <c r="D17">
-        <v>11.44216914698303</v>
+        <v>11.4421691469829</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.88885265436475</v>
+        <v>76.88885265436426</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>21.53966739109437</v>
+        <v>21.53966739109443</v>
       </c>
       <c r="K17">
-        <v>37.99169075098636</v>
+        <v>37.99169075098638</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.03845334620727</v>
+        <v>27.03845334620729</v>
       </c>
       <c r="C18">
-        <v>10.88831719919798</v>
+        <v>10.88831719919773</v>
       </c>
       <c r="D18">
-        <v>11.30633326246343</v>
+        <v>11.30633326246355</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.83689955429949</v>
+        <v>75.83689955429989</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>21.21716744799455</v>
+        <v>21.21716744799445</v>
       </c>
       <c r="K18">
-        <v>37.37341718116951</v>
+        <v>37.37341718116964</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.89482137121121</v>
+        <v>26.8948213712111</v>
       </c>
       <c r="C19">
-        <v>10.83668950005118</v>
+        <v>10.83668950005124</v>
       </c>
       <c r="D19">
-        <v>11.26037004365645</v>
+        <v>11.2603700436564</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.48030728669833</v>
+        <v>75.48030728669798</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>21.10777672395335</v>
+        <v>21.10777672395324</v>
       </c>
       <c r="K19">
-        <v>37.1642117446298</v>
+        <v>37.16421174462971</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.54022153075456</v>
+        <v>27.5402215307546</v>
       </c>
       <c r="C20">
-        <v>11.06863163794349</v>
+        <v>11.06863163794311</v>
       </c>
       <c r="D20">
-        <v>11.4673258419731</v>
+        <v>11.46732584197315</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.08336719499304</v>
+        <v>77.08336719499351</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>21.59926878244983</v>
+        <v>21.59926878244982</v>
       </c>
       <c r="K20">
-        <v>38.10620515122253</v>
+        <v>38.10620515122265</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.69867665205044</v>
+        <v>29.69867665205069</v>
       </c>
       <c r="C21">
-        <v>11.84305000213244</v>
+        <v>11.84305000213243</v>
       </c>
       <c r="D21">
-        <v>12.16666603638817</v>
+        <v>12.16666603638824</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>82.45413867060124</v>
+        <v>82.45413867060149</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>23.24203175587215</v>
+        <v>23.2420317558723</v>
       </c>
       <c r="K21">
-        <v>41.29599150590386</v>
+        <v>41.29599150590389</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.1116864737682</v>
+        <v>31.11168647376815</v>
       </c>
       <c r="C22">
-        <v>12.34822824569678</v>
+        <v>12.34822824569691</v>
       </c>
       <c r="D22">
-        <v>12.62960645162861</v>
+        <v>12.62960645162857</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>86.05310983573881</v>
+        <v>86.05310983573872</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>24.31650550053293</v>
+        <v>24.31650550053297</v>
       </c>
       <c r="K22">
-        <v>43.42166211412421</v>
+        <v>43.42166211412429</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.3565926609355</v>
+        <v>30.35659266093558</v>
       </c>
       <c r="C23">
-        <v>12.07849676412101</v>
+        <v>12.07849676412114</v>
       </c>
       <c r="D23">
-        <v>12.3817681978828</v>
+        <v>12.38176819788293</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>84.12069246134133</v>
+        <v>84.12069246134153</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>23.74242475423747</v>
+        <v>23.74242475423751</v>
       </c>
       <c r="K23">
-        <v>42.28169903776082</v>
+        <v>42.28169903776083</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.5048382222173</v>
+        <v>27.50483822221743</v>
       </c>
       <c r="C24">
-        <v>11.05591884196396</v>
+        <v>11.05591884196389</v>
       </c>
       <c r="D24">
-        <v>11.45595197537621</v>
+        <v>11.45595197537635</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.99543486963587</v>
+        <v>76.99543486963661</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>21.57232651105168</v>
+        <v>21.57232651105175</v>
       </c>
       <c r="K24">
-        <v>38.05443011739058</v>
+        <v>38.05443011739067</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.38113623475608</v>
+        <v>24.38113623475603</v>
       </c>
       <c r="C25">
-        <v>9.932795378170981</v>
+        <v>9.932795378170828</v>
       </c>
       <c r="D25">
-        <v>10.46571775751389</v>
+        <v>10.46571775751382</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.26086885827475</v>
+        <v>69.26086885827421</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>19.1924349367931</v>
+        <v>19.192434936793</v>
       </c>
       <c r="K25">
-        <v>33.53953999332629</v>
+        <v>33.53953999332625</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.99389638600071</v>
+        <v>21.85082529431542</v>
       </c>
       <c r="C2">
-        <v>9.075030747414223</v>
+        <v>8.86469970774168</v>
       </c>
       <c r="D2">
-        <v>9.731260607467734</v>
+        <v>9.799964256408344</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.41034130176057</v>
+        <v>63.46118933659248</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.046027056836569</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,36 +439,39 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>17.37195551756097</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>30.15288139266379</v>
+        <v>17.20927197990066</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>30.0786677547333</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.30510069383539</v>
+        <v>20.17156304764316</v>
       </c>
       <c r="C3">
-        <v>8.469508832736826</v>
+        <v>8.259343528918308</v>
       </c>
       <c r="D3">
-        <v>9.226378425403162</v>
+        <v>9.30335636376101</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.32157935910337</v>
+        <v>59.4109229890101</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.061771612123388</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,36 +480,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>16.08322850411097</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>27.78430706781347</v>
+        <v>15.92537893419466</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>27.71833905565149</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.22893519670156</v>
+        <v>19.10153526907985</v>
       </c>
       <c r="C4">
-        <v>8.084488419923836</v>
+        <v>7.874136596674028</v>
       </c>
       <c r="D4">
-        <v>8.91211794902476</v>
+        <v>8.994512353534626</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.7448297255202</v>
+        <v>56.85976459961282</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.071496029391579</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,36 +521,39 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.2615927606475</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>26.28514513072305</v>
+        <v>15.10662822472221</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>26.2240443019617</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.7799868442224</v>
+        <v>18.65517492172485</v>
       </c>
       <c r="C5">
-        <v>7.924103754031203</v>
+        <v>7.713599471163035</v>
       </c>
       <c r="D5">
-        <v>8.782918341394049</v>
+        <v>8.867607514835091</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.67771281497422</v>
+        <v>55.80361106099006</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.075482022014066</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,36 +562,39 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14.9187248528449</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>25.66186957007519</v>
+        <v>14.76491889601082</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>25.60272009752737</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.70479677474817</v>
+        <v>18.58042028575493</v>
       </c>
       <c r="C6">
-        <v>7.897257299282505</v>
+        <v>7.686722938919897</v>
       </c>
       <c r="D6">
-        <v>8.761395058492308</v>
+        <v>8.846470624968127</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.49948153217675</v>
+        <v>55.62723375527836</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.076145530857314</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,36 +603,39 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14.86129494458381</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>25.55760033859262</v>
+        <v>14.70768041440799</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>25.49877338376943</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.2229232950319</v>
+        <v>19.09555789817462</v>
       </c>
       <c r="C7">
-        <v>8.082339722036433</v>
+        <v>7.871986158518375</v>
       </c>
       <c r="D7">
-        <v>8.910380175536242</v>
+        <v>8.992805170730962</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.73050766017029</v>
+        <v>56.84558816952965</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.071549681083712</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,36 +644,39 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.25700180416833</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>26.27679075517758</v>
+        <v>15.10205295871038</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>26.21571635289887</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.41939651996806</v>
+        <v>21.27956291611394</v>
       </c>
       <c r="C8">
-        <v>8.86888765148306</v>
+        <v>8.658671663024398</v>
       </c>
       <c r="D8">
-        <v>9.558010504888989</v>
+        <v>9.629499624207851</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.01393529766347</v>
+        <v>62.07767762552731</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.051449627448427</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,36 +685,39 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>16.9336361643124</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>29.34480363698893</v>
+        <v>16.77263945601155</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>29.27348528979014</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.44433387038013</v>
+        <v>25.2815719576839</v>
       </c>
       <c r="C9">
-        <v>10.31513567799117</v>
+        <v>10.10299943220258</v>
       </c>
       <c r="D9">
-        <v>10.79945462857079</v>
+        <v>10.8519531373547</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.88583405188517</v>
+        <v>71.86231463328735</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.012009105922328</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,36 +726,39 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>20.00275806431754</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>35.06457602826826</v>
+        <v>19.82896177675071</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>34.97057178988678</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.27989535820473</v>
+        <v>28.100000110893</v>
       </c>
       <c r="C10">
-        <v>11.33428104385947</v>
+        <v>11.11940991233933</v>
       </c>
       <c r="D10">
-        <v>11.70579383354471</v>
+        <v>11.74540665712809</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.92257933788028</v>
+        <v>78.8397671909872</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.982181935359515</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,36 +767,39 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22.16239729098026</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>39.19217808613119</v>
+        <v>21.97800325388302</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>39.07778871293582</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.55890337471744</v>
+        <v>29.37076808399878</v>
       </c>
       <c r="C11">
-        <v>11.79298533911337</v>
+        <v>11.57654428884184</v>
       </c>
       <c r="D11">
-        <v>12.12107537847246</v>
+        <v>12.15490847936196</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>82.1060947567602</v>
+        <v>81.99637375889853</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.968172663091242</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,36 +808,39 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>23.13570220531301</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>41.08743965910306</v>
+        <v>22.94598959139777</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>40.96216472211045</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.0434230185783</v>
+        <v>29.85205555955271</v>
       </c>
       <c r="C12">
-        <v>11.96646852003978</v>
+        <v>11.74937932146285</v>
       </c>
       <c r="D12">
-        <v>12.27927701515582</v>
+        <v>12.31091463776196</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>83.31871549228188</v>
+        <v>83.192608073738</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.962775180870306</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,36 +849,39 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>23.50425799420037</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>41.81165375111242</v>
+        <v>23.31242793030158</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>41.681914792394</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.93903100296223</v>
+        <v>29.74836559817027</v>
       </c>
       <c r="C13">
-        <v>11.92910642510959</v>
+        <v>11.71215935192368</v>
       </c>
       <c r="D13">
-        <v>12.2451533719392</v>
+        <v>12.27726450936064</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>83.05266328677347</v>
+        <v>82.93487116920667</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.963942296497592</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,36 +890,39 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>23.42485866587046</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>41.65531303251983</v>
+        <v>23.23348989652616</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>41.52655302370517</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.59874940180341</v>
+        <v>29.41035078351671</v>
       </c>
       <c r="C14">
-        <v>11.80725904762344</v>
+        <v>11.59076580136474</v>
       </c>
       <c r="D14">
-        <v>12.13406823056209</v>
+        <v>12.16772097744021</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>82.20531223474312</v>
+        <v>82.09474714944652</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.967730660174246</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,36 +931,39 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>23.16601497813852</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>41.14686283747342</v>
+        <v>22.97613046672438</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>41.02122831561581</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.39040246509606</v>
+        <v>29.20337600968534</v>
       </c>
       <c r="C15">
-        <v>11.73261213472359</v>
+        <v>11.51638961859159</v>
       </c>
       <c r="D15">
-        <v>12.06616651445362</v>
+        <v>12.10076197891878</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81.68654002871173</v>
+        <v>81.58038386391503</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.970038088804708</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,36 +972,39 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>23.00750895875595</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>40.83641261306285</v>
+        <v>22.81851894422973</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>40.71264386042663</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.19622850106413</v>
+        <v>28.01685911517752</v>
       </c>
       <c r="C16">
-        <v>11.30424391157743</v>
+        <v>11.08946832009993</v>
       </c>
       <c r="D16">
-        <v>11.67875441860613</v>
+        <v>11.71874517198379</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.71445225771562</v>
+        <v>78.63339099630052</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.983086304301752</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,36 +1013,39 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>22.09870873335587</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>39.06898471347414</v>
+        <v>21.91464984023008</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>38.95526599251891</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.46194763725244</v>
+        <v>27.28713278038792</v>
       </c>
       <c r="C17">
-        <v>11.04050822788597</v>
+        <v>10.82653305551734</v>
       </c>
       <c r="D17">
-        <v>11.4421691469829</v>
+        <v>11.48547950200537</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.88885265436426</v>
+        <v>76.82313218090056</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.990959848004717</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,36 +1054,39 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>21.53966739109443</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>37.99169075098638</v>
+        <v>21.35848739402794</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>37.88366060542236</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.03845334620729</v>
+        <v>26.86621980555476</v>
       </c>
       <c r="C18">
-        <v>10.88831719919773</v>
+        <v>10.67477232425994</v>
       </c>
       <c r="D18">
-        <v>11.30633326246355</v>
+        <v>11.35156210918584</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.83689955429989</v>
+        <v>75.78001723200028</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.995449157331874</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,36 +1095,39 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>21.21716744799445</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>37.37341718116964</v>
+        <v>21.03759898498717</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>37.26851592850383</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.8948213712111</v>
+        <v>26.72345641147168</v>
       </c>
       <c r="C19">
-        <v>10.83668950005124</v>
+        <v>10.62328530159172</v>
       </c>
       <c r="D19">
-        <v>11.2603700436564</v>
+        <v>11.30625049216966</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.48030728669798</v>
+        <v>75.42642281786298</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.996963160356123</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,36 +1136,39 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>21.10777672395324</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>37.16421174462971</v>
+        <v>20.92874705038668</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>37.06034791531523</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.5402215307546</v>
+        <v>27.36492609194069</v>
       </c>
       <c r="C20">
-        <v>11.06863163794311</v>
+        <v>10.85457441115985</v>
       </c>
       <c r="D20">
-        <v>11.46732584197315</v>
+        <v>11.51028198694521</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.08336719499351</v>
+        <v>77.01601287574475</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.990125952600067</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,36 +1177,39 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>21.59926878244982</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>38.10620515122265</v>
+        <v>21.41778709907407</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>37.99758489265412</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.69867665205069</v>
+        <v>29.50961573694995</v>
       </c>
       <c r="C21">
-        <v>11.84305000213243</v>
+        <v>11.62642498480814</v>
       </c>
       <c r="D21">
-        <v>12.16666603638824</v>
+        <v>12.19986634489539</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>82.45413867060149</v>
+        <v>82.34145481603366</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.966620711059359</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,36 +1218,39 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>23.2420317558723</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>41.29599150590389</v>
+        <v>23.05171441401505</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>41.16944937426963</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.11168647376815</v>
+        <v>30.91293840744792</v>
       </c>
       <c r="C22">
-        <v>12.34822824569691</v>
+        <v>12.12960615474079</v>
       </c>
       <c r="D22">
-        <v>12.62960645162857</v>
+        <v>12.6563763009433</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>86.05310983573872</v>
+        <v>85.87178183446306</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.950699097620076</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,36 +1259,39 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>24.31650550053297</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>43.42166211412429</v>
+        <v>24.11978394829523</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>43.2813178237471</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.35659266093558</v>
+        <v>30.16309949671339</v>
       </c>
       <c r="C23">
-        <v>12.07849676412114</v>
+        <v>11.86097302079992</v>
       </c>
       <c r="D23">
-        <v>12.38176819788293</v>
+        <v>12.41198333945828</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>84.12069246134153</v>
+        <v>83.96578418216475</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.959260050540302</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,36 +1300,39 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>23.74242475423751</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>42.28169903776083</v>
+        <v>23.54919354667753</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>42.14896438554507</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.50483822221743</v>
+        <v>27.32976016689341</v>
       </c>
       <c r="C24">
-        <v>11.05591884196389</v>
+        <v>10.84189880457267</v>
       </c>
       <c r="D24">
-        <v>11.45595197537635</v>
+        <v>11.4990682262405</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.99543486963661</v>
+        <v>76.92881914631852</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.990503070809674</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,36 +1341,39 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>21.57232651105175</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>38.05443011739067</v>
+        <v>21.39098135361442</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>37.94607708230262</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.38113623475603</v>
+        <v>24.22452482508446</v>
       </c>
       <c r="C25">
-        <v>9.932795378170828</v>
+        <v>9.721405513073497</v>
       </c>
       <c r="D25">
-        <v>10.46571775751382</v>
+        <v>10.5231271983511</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.26086885827421</v>
+        <v>69.25983440509813</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.022756869580594</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,12 +1382,15 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>19.192434936793</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>33.53953999332625</v>
+        <v>19.02225178007911</v>
       </c>
       <c r="L25">
+        <v>33.45212692704958</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.85082529431542</v>
+        <v>24.32146134779548</v>
       </c>
       <c r="C2">
-        <v>8.86469970774168</v>
+        <v>17.66028627756764</v>
       </c>
       <c r="D2">
-        <v>9.799964256408344</v>
+        <v>3.783982166832049</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.46118933659248</v>
+        <v>37.6537685991759</v>
       </c>
       <c r="G2">
-        <v>2.046027056836569</v>
+        <v>2.036813443071057</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,36 +448,42 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.20927197990066</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>30.0786677547333</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>30.17037928416239</v>
+      </c>
+      <c r="N2">
+        <v>12.72630183805729</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.17156304764316</v>
+        <v>22.55660908579517</v>
       </c>
       <c r="C3">
-        <v>8.259343528918308</v>
+        <v>16.39809506249068</v>
       </c>
       <c r="D3">
-        <v>9.30335636376101</v>
+        <v>3.825762428745665</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.4109229890101</v>
+        <v>35.49699624772572</v>
       </c>
       <c r="G3">
-        <v>2.061771612123388</v>
+        <v>2.049585147580574</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,36 +495,42 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.92537893419466</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>27.71833905565149</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>27.81282609399296</v>
+      </c>
+      <c r="N3">
+        <v>12.88371417295659</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.10153526907985</v>
+        <v>21.42081187814259</v>
       </c>
       <c r="C4">
-        <v>7.874136596674028</v>
+        <v>15.58614811658635</v>
       </c>
       <c r="D4">
-        <v>8.994512353534626</v>
+        <v>3.855064399587463</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.85976459961282</v>
+        <v>34.15790166816365</v>
       </c>
       <c r="G4">
-        <v>2.071496029391579</v>
+        <v>2.057546079559439</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -524,36 +542,42 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.10662822472221</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>26.2240443019617</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>26.31962843035853</v>
+      </c>
+      <c r="N4">
+        <v>12.98653796550429</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.65517492172485</v>
+        <v>20.94456359127731</v>
       </c>
       <c r="C5">
-        <v>7.713599471163035</v>
+        <v>15.24576524697312</v>
       </c>
       <c r="D5">
-        <v>8.867607514835091</v>
+        <v>3.86783039023259</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.80361106099006</v>
+        <v>33.60871566381934</v>
       </c>
       <c r="G5">
-        <v>2.075482022014066</v>
+        <v>2.06082504107961</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -565,36 +589,42 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.76491889601082</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>25.60272009752737</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>25.69859176739163</v>
+      </c>
+      <c r="N5">
+        <v>13.02989331880604</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.58042028575493</v>
+        <v>20.86466571189716</v>
       </c>
       <c r="C6">
-        <v>7.686722938919897</v>
+        <v>15.18866473995226</v>
       </c>
       <c r="D6">
-        <v>8.846470624968127</v>
+        <v>3.869997564481663</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.62723375527836</v>
+        <v>33.51732274526996</v>
       </c>
       <c r="G6">
-        <v>2.076145530857314</v>
+        <v>2.061371745321011</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -606,36 +636,42 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.70768041440799</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>25.49877338376943</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25.59468306288996</v>
+      </c>
+      <c r="N6">
+        <v>13.03717765447142</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.09555789817462</v>
+        <v>21.41444364592921</v>
       </c>
       <c r="C7">
-        <v>7.871986158518375</v>
+        <v>15.58159636238937</v>
       </c>
       <c r="D7">
-        <v>8.992805170730962</v>
+        <v>3.85523333735602</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.84558816952965</v>
+        <v>34.15050887085962</v>
       </c>
       <c r="G7">
-        <v>2.071549681083712</v>
+        <v>2.057590153755868</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -647,36 +683,42 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.10205295871038</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>26.21571635289887</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>26.31130501028852</v>
+      </c>
+      <c r="N7">
+        <v>12.98711690359183</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.27956291611394</v>
+        <v>23.72358945157496</v>
       </c>
       <c r="C8">
-        <v>8.658671663024398</v>
+        <v>17.23261758191197</v>
       </c>
       <c r="D8">
-        <v>9.629499624207851</v>
+        <v>3.797570792250028</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.07767762552731</v>
+        <v>36.91327885554491</v>
       </c>
       <c r="G8">
-        <v>2.051449627448427</v>
+        <v>2.041195539655144</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -688,36 +730,42 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.77263945601155</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>29.27348528979014</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>29.36627366922718</v>
+      </c>
+      <c r="N8">
+        <v>12.77923272028666</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.2815719576839</v>
+        <v>27.85221956463965</v>
       </c>
       <c r="C9">
-        <v>10.10299943220258</v>
+        <v>20.18786489195262</v>
       </c>
       <c r="D9">
-        <v>10.8519531373547</v>
+        <v>3.718429710999541</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.86231463328735</v>
+        <v>42.21261332264326</v>
       </c>
       <c r="G9">
-        <v>2.012009105922328</v>
+        <v>2.009734409834076</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -729,36 +777,42 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.82896177675071</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>34.97057178988678</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>35.05385788058859</v>
+      </c>
+      <c r="N9">
+        <v>12.42588081014027</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.100000110893</v>
+        <v>30.66488737139028</v>
       </c>
       <c r="C10">
-        <v>11.11940991233933</v>
+        <v>22.2041587877517</v>
       </c>
       <c r="D10">
-        <v>11.74540665712809</v>
+        <v>3.689481192451837</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.8397671909872</v>
+        <v>46.10492485263791</v>
       </c>
       <c r="G10">
-        <v>1.982181935359515</v>
+        <v>1.986610519015543</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -770,36 +824,42 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.97800325388302</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>39.07778871293582</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>39.15436106810991</v>
+      </c>
+      <c r="N10">
+        <v>12.20857742379468</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.37076808399878</v>
+        <v>31.90271814998572</v>
       </c>
       <c r="C11">
-        <v>11.57654428884184</v>
+        <v>23.09238720944441</v>
       </c>
       <c r="D11">
-        <v>12.15490847936196</v>
+        <v>3.685123524084404</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.99637375889853</v>
+        <v>47.96598405678095</v>
       </c>
       <c r="G11">
-        <v>1.968172663091242</v>
+        <v>1.975964715342463</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -811,36 +871,42 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.94598959139777</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>40.96216472211045</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>41.03728963672049</v>
+      </c>
+      <c r="N11">
+        <v>12.12161270850719</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.85205555955271</v>
+        <v>32.36608771598176</v>
       </c>
       <c r="C12">
-        <v>11.74937932146285</v>
+        <v>23.42502998579274</v>
       </c>
       <c r="D12">
-        <v>12.31091463776196</v>
+        <v>3.685005383447465</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>83.192608073738</v>
+        <v>48.66925216137049</v>
       </c>
       <c r="G12">
-        <v>1.962775180870306</v>
+        <v>1.971901719181755</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -852,36 +918,42 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.31242793030158</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>41.681914792394</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>41.75699688710066</v>
+      </c>
+      <c r="N12">
+        <v>12.09068335347992</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.74836559817027</v>
+        <v>32.26652043606022</v>
       </c>
       <c r="C13">
-        <v>11.71215935192368</v>
+        <v>23.35354619625823</v>
       </c>
       <c r="D13">
-        <v>12.27726450936064</v>
+        <v>3.684957822238481</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.93487116920667</v>
+        <v>48.51783201386938</v>
       </c>
       <c r="G13">
-        <v>1.963942296497592</v>
+        <v>1.972778418284843</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -893,36 +965,42 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.23348989652616</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>41.52655302370517</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>41.60161528154598</v>
+      </c>
+      <c r="N13">
+        <v>12.09725010874985</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.41035078351671</v>
+        <v>31.94094348192021</v>
       </c>
       <c r="C14">
-        <v>11.59076580136474</v>
+        <v>23.11982535571326</v>
       </c>
       <c r="D14">
-        <v>12.16772097744021</v>
+        <v>3.685081369193313</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>82.09474714944652</v>
+        <v>48.02386327466049</v>
       </c>
       <c r="G14">
-        <v>1.967730660174246</v>
+        <v>1.975631174216886</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -934,36 +1012,42 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.97613046672438</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>41.02122831561581</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>41.09633729187932</v>
+      </c>
+      <c r="N14">
+        <v>12.11902608819032</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.20337600968534</v>
+        <v>31.74083931298583</v>
       </c>
       <c r="C15">
-        <v>11.51638961859159</v>
+        <v>22.97619648305973</v>
       </c>
       <c r="D15">
-        <v>12.10076197891878</v>
+        <v>3.685365434732778</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81.58038386391503</v>
+        <v>47.72114514352639</v>
       </c>
       <c r="G15">
-        <v>1.970038088804708</v>
+        <v>1.977373988540087</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -975,36 +1059,42 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.81851894422973</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>40.71264386042663</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>40.7878587305916</v>
+      </c>
+      <c r="N15">
+        <v>12.13263507850027</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.01685911517752</v>
+        <v>30.58320432929853</v>
       </c>
       <c r="C16">
-        <v>11.08946832009993</v>
+        <v>22.14556497304855</v>
       </c>
       <c r="D16">
-        <v>11.71874517198379</v>
+        <v>3.689964632523455</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.63339099630052</v>
+        <v>45.98301702232128</v>
       </c>
       <c r="G16">
-        <v>1.983086304301752</v>
+        <v>1.987302623645035</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1016,36 +1106,42 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.91464984023008</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>38.95526599251891</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>39.03198465604329</v>
+      </c>
+      <c r="N16">
+        <v>12.21452356935096</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.28713278038792</v>
+        <v>29.86276857546992</v>
       </c>
       <c r="C17">
-        <v>10.82653305551734</v>
+        <v>21.6288756467749</v>
       </c>
       <c r="D17">
-        <v>11.48547950200537</v>
+        <v>3.695213944356748</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.82313218090056</v>
+        <v>44.93723650982275</v>
       </c>
       <c r="G17">
-        <v>1.990959848004717</v>
+        <v>1.993352505520215</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1057,36 +1153,42 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.35848739402794</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>37.88366060542236</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>37.96185619336455</v>
+      </c>
+      <c r="N17">
+        <v>12.26799309611966</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.86621980555476</v>
+        <v>29.44442813427904</v>
       </c>
       <c r="C18">
-        <v>10.67477232425994</v>
+        <v>21.32892890875896</v>
       </c>
       <c r="D18">
-        <v>11.35156210918584</v>
+        <v>3.699043735515196</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.78001723200028</v>
+        <v>44.36314075003482</v>
       </c>
       <c r="G18">
-        <v>1.995449157331874</v>
+        <v>1.996821284993111</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1098,36 +1200,42 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.03759898498717</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>37.26851592850383</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>37.34768871094939</v>
+      </c>
+      <c r="N18">
+        <v>12.29984539451442</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.72345641147168</v>
+        <v>29.30208715538109</v>
       </c>
       <c r="C19">
-        <v>10.62328530159172</v>
+        <v>21.22688522953425</v>
       </c>
       <c r="D19">
-        <v>11.30625049216966</v>
+        <v>3.700472479384036</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.42642281786298</v>
+        <v>44.16865044399395</v>
       </c>
       <c r="G19">
-        <v>1.996963160356123</v>
+        <v>1.997994231263585</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1139,36 +1247,42 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.92874705038668</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>37.06034791531523</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>37.13986786493867</v>
+      </c>
+      <c r="N19">
+        <v>12.31081071743981</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.36492609194069</v>
+        <v>29.93986639854939</v>
       </c>
       <c r="C20">
-        <v>10.85457441115985</v>
+        <v>21.68416075877526</v>
       </c>
       <c r="D20">
-        <v>11.51028198694521</v>
+        <v>3.694569521898044</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.01601287574475</v>
+        <v>45.04344200665624</v>
       </c>
       <c r="G20">
-        <v>1.990125952600067</v>
+        <v>1.992709705862333</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1180,36 +1294,42 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.41778709907407</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>37.99758489265412</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>38.07560861983976</v>
+      </c>
+      <c r="N20">
+        <v>12.26218561201549</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.50961573694995</v>
+        <v>32.03671352118985</v>
       </c>
       <c r="C21">
-        <v>11.62642498480814</v>
+        <v>23.18857144400019</v>
       </c>
       <c r="D21">
-        <v>12.19986634489539</v>
+        <v>3.685001092186972</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>82.34145481603366</v>
+        <v>48.16898188176961</v>
       </c>
       <c r="G21">
-        <v>1.966620711059359</v>
+        <v>1.974794234454271</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1221,36 +1341,42 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.05171441401505</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>41.16944937426963</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>41.24452772840301</v>
+      </c>
+      <c r="N21">
+        <v>12.1125729487161</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.91293840744792</v>
+        <v>33.37620546117896</v>
       </c>
       <c r="C22">
-        <v>12.12960615474079</v>
+        <v>24.15044433788102</v>
       </c>
       <c r="D22">
-        <v>12.6563763009433</v>
+        <v>3.68784726179193</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>85.87178183446306</v>
+        <v>50.21490399880396</v>
       </c>
       <c r="G22">
-        <v>1.950699097620076</v>
+        <v>1.962891851326365</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1262,36 +1388,42 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.11978394829523</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>43.2813178237471</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>43.35772231492013</v>
+      </c>
+      <c r="N22">
+        <v>12.02665076601627</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.16309949671339</v>
+        <v>32.66388405284076</v>
       </c>
       <c r="C23">
-        <v>11.86097302079992</v>
+        <v>23.63885297809368</v>
       </c>
       <c r="D23">
-        <v>12.41198333945828</v>
+        <v>3.685391430514464</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>83.96578418216475</v>
+        <v>49.12313264466995</v>
       </c>
       <c r="G23">
-        <v>1.959260050540302</v>
+        <v>1.969267516405484</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1303,36 +1435,42 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.54919354667753</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>42.14896438554507</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>42.22421199126904</v>
+      </c>
+      <c r="N23">
+        <v>12.07130898206194</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.32976016689341</v>
+        <v>29.90502345162841</v>
       </c>
       <c r="C24">
-        <v>10.84189880457267</v>
+        <v>21.65917541097916</v>
       </c>
       <c r="D24">
-        <v>11.4990682262405</v>
+        <v>3.694858355625382</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.92881914631852</v>
+        <v>44.99542891715128</v>
       </c>
       <c r="G24">
-        <v>1.990503070809674</v>
+        <v>1.99300034383208</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1344,36 +1482,42 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.39098135361442</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>37.94607708230262</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>38.02417812623597</v>
+      </c>
+      <c r="N24">
+        <v>12.26480773330586</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.22452482508446</v>
+        <v>26.77591304758468</v>
       </c>
       <c r="C25">
-        <v>9.721405513073497</v>
+        <v>19.41698306620193</v>
       </c>
       <c r="D25">
-        <v>10.5231271983511</v>
+        <v>3.735426281579458</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.25983440509813</v>
+        <v>40.79100737866339</v>
       </c>
       <c r="G25">
-        <v>2.022756869580594</v>
+        <v>2.018211441621772</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1385,12 +1529,18 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.02225178007911</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>33.45212692704958</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>33.53824159617188</v>
+      </c>
+      <c r="N25">
+        <v>12.51481959379215</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.32146134779548</v>
+        <v>21.36630246802594</v>
       </c>
       <c r="C2">
-        <v>17.66028627756764</v>
+        <v>13.23419214769856</v>
       </c>
       <c r="D2">
-        <v>3.783982166832049</v>
+        <v>6.03777981567448</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.6537685991759</v>
+        <v>18.56966887513918</v>
       </c>
       <c r="G2">
-        <v>2.036813443071057</v>
+        <v>19.626870639607</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>8.349683410586886</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12.93475411628073</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.337217274217366</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.299282158522017</v>
       </c>
       <c r="M2">
-        <v>30.17037928416239</v>
+        <v>12.99773662758327</v>
       </c>
       <c r="N2">
-        <v>12.72630183805729</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>13.26700012753926</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.55660908579517</v>
+        <v>19.96201694674141</v>
       </c>
       <c r="C3">
-        <v>16.39809506249068</v>
+        <v>12.71617850847971</v>
       </c>
       <c r="D3">
-        <v>3.825762428745665</v>
+        <v>5.988109380181792</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.49699624772572</v>
+        <v>18.59089202000014</v>
       </c>
       <c r="G3">
-        <v>2.049585147580574</v>
+        <v>19.51496946870786</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.448059892099858</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>13.27980117983602</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.403651586923663</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.180629989467843</v>
       </c>
       <c r="M3">
-        <v>27.81282609399296</v>
+        <v>12.35081077266318</v>
       </c>
       <c r="N3">
-        <v>12.88371417295659</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>13.37063773856001</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.42081187814259</v>
+        <v>19.04781438973756</v>
       </c>
       <c r="C4">
-        <v>15.58614811658635</v>
+        <v>12.38770027195842</v>
       </c>
       <c r="D4">
-        <v>3.855064399587463</v>
+        <v>5.959746237304877</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.15790166816365</v>
+        <v>18.62384062022405</v>
       </c>
       <c r="G4">
-        <v>2.057546079559439</v>
+        <v>19.47677474919293</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.514251890289541</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>13.50106523438744</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.445785013377446</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.109008709053811</v>
       </c>
       <c r="M4">
-        <v>26.31962843035853</v>
+        <v>11.93763225390569</v>
       </c>
       <c r="N4">
-        <v>12.98653796550429</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>13.44810342716141</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.94456359127731</v>
+        <v>18.6621560705454</v>
       </c>
       <c r="C5">
-        <v>15.24576524697312</v>
+        <v>12.25136992594328</v>
       </c>
       <c r="D5">
-        <v>3.86783039023259</v>
+        <v>5.948727660562291</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.60871566381934</v>
+        <v>18.6420825985416</v>
       </c>
       <c r="G5">
-        <v>2.06082504107961</v>
+        <v>19.4685927284476</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8.542631478480896</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>13.59354894397237</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.463296925220137</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.080158934644625</v>
       </c>
       <c r="M5">
-        <v>25.69859176739163</v>
+        <v>11.76541453755691</v>
       </c>
       <c r="N5">
-        <v>13.02989331880604</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>13.48299280037087</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.86466571189716</v>
+        <v>18.59732454029914</v>
       </c>
       <c r="C6">
-        <v>15.18866473995226</v>
+        <v>12.22858767413133</v>
       </c>
       <c r="D6">
-        <v>3.869997564481663</v>
+        <v>5.946930690975337</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.51732274526996</v>
+        <v>18.645396770609</v>
       </c>
       <c r="G6">
-        <v>2.061371745321011</v>
+        <v>19.46767102731453</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8.547427400507368</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>13.60904447134385</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.466225565600349</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.07538954982979</v>
       </c>
       <c r="M6">
-        <v>25.59468306288996</v>
+        <v>11.73659131834963</v>
       </c>
       <c r="N6">
-        <v>13.03717765447142</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>13.4889822690261</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.41444364592921</v>
+        <v>19.04266641989948</v>
       </c>
       <c r="C7">
-        <v>15.58159636238937</v>
+        <v>12.38587147823523</v>
       </c>
       <c r="D7">
-        <v>3.85523333735602</v>
+        <v>5.959595448910979</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.15050887085962</v>
+        <v>18.62406739947055</v>
       </c>
       <c r="G7">
-        <v>2.057590153755868</v>
+        <v>19.47663491374415</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8.514628998679139</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>13.50230317885276</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.446019793561892</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.108618233373792</v>
       </c>
       <c r="M7">
-        <v>26.31130501028852</v>
+        <v>11.93532498299991</v>
       </c>
       <c r="N7">
-        <v>12.98711690359183</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>13.44856071262716</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.72358945157496</v>
+        <v>20.89286080670731</v>
       </c>
       <c r="C8">
-        <v>17.23261758191197</v>
+        <v>13.05782481853347</v>
       </c>
       <c r="D8">
-        <v>3.797570792250028</v>
+        <v>6.020212377977805</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.91327885554491</v>
+        <v>18.57273777482005</v>
       </c>
       <c r="G8">
-        <v>2.041195539655144</v>
+        <v>19.58178813654771</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8.382371327307533</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>13.05174330041807</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.359848017517302</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.258131392710347</v>
       </c>
       <c r="M8">
-        <v>29.36627366922718</v>
+        <v>12.77808255298306</v>
       </c>
       <c r="N8">
-        <v>12.77923272028666</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>13.29976807028191</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.85221956463965</v>
+        <v>24.11110668352054</v>
       </c>
       <c r="C9">
-        <v>20.18786489195262</v>
+        <v>14.28739129813677</v>
       </c>
       <c r="D9">
-        <v>3.718429710999541</v>
+        <v>6.155855266496391</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>42.21261332264326</v>
+        <v>18.63848889074633</v>
       </c>
       <c r="G9">
-        <v>2.009734409834076</v>
+        <v>20.04149841070794</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.171340552093891</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.24542378293532</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.201300224722246</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.559922641747836</v>
       </c>
       <c r="M9">
-        <v>35.05385788058859</v>
+        <v>14.29805401151087</v>
       </c>
       <c r="N9">
-        <v>12.42588081014027</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.12493674303461</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.66488737139028</v>
+        <v>26.22915570415607</v>
       </c>
       <c r="C10">
-        <v>22.2041587877517</v>
+        <v>15.1309005127213</v>
       </c>
       <c r="D10">
-        <v>3.689481192451837</v>
+        <v>6.265469459419276</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>46.10492485263791</v>
+        <v>18.79916504826714</v>
       </c>
       <c r="G10">
-        <v>1.986610519015543</v>
+        <v>20.54684354337195</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.049318429769583</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>11.70457678753859</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.090861924299118</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.785343099438395</v>
       </c>
       <c r="M10">
-        <v>39.15436106810991</v>
+        <v>15.3276100054433</v>
       </c>
       <c r="N10">
-        <v>12.20857742379468</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.0778561050459</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.90271814998572</v>
+        <v>27.14003456291109</v>
       </c>
       <c r="C11">
-        <v>23.09238720944441</v>
+        <v>15.50065768763189</v>
       </c>
       <c r="D11">
-        <v>3.685123524084404</v>
+        <v>6.317427852867322</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>47.96598405678095</v>
+        <v>18.89881163172018</v>
       </c>
       <c r="G11">
-        <v>1.975964715342463</v>
+        <v>20.81516452707251</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.001830207245963</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>11.47102097758767</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.041862295520451</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.888381721733571</v>
       </c>
       <c r="M11">
-        <v>41.03728963672049</v>
+        <v>15.7761508639337</v>
       </c>
       <c r="N11">
-        <v>12.12161270850719</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.07630453300611</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.36608771598176</v>
+        <v>27.47746156673422</v>
       </c>
       <c r="C12">
-        <v>23.42502998579274</v>
+        <v>15.63860390286007</v>
       </c>
       <c r="D12">
-        <v>3.685005383447465</v>
+        <v>6.337397566005968</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.66925216137049</v>
+        <v>18.94052473549488</v>
       </c>
       <c r="G12">
-        <v>1.971901719181755</v>
+        <v>20.92241339896142</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.985077599368156</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>11.38451019506878</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.023479653112888</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.927445974276248</v>
       </c>
       <c r="M12">
-        <v>41.75699688710066</v>
+        <v>15.94309989902681</v>
       </c>
       <c r="N12">
-        <v>12.09068335347992</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.0787546166951</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.26652043606022</v>
+        <v>27.40512325557383</v>
       </c>
       <c r="C13">
-        <v>23.35354619625823</v>
+        <v>15.60898781879969</v>
       </c>
       <c r="D13">
-        <v>3.684957822238481</v>
+        <v>6.333083760233545</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>48.51783201386938</v>
+        <v>18.93136167317727</v>
       </c>
       <c r="G13">
-        <v>1.972778418284843</v>
+        <v>20.89906307151328</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.988629587185857</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>11.40305346488951</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.027431108194142</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.919031139101536</v>
       </c>
       <c r="M13">
-        <v>41.60161528154598</v>
+        <v>15.90727430275167</v>
       </c>
       <c r="N13">
-        <v>12.09725010874985</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.07808898337331</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.94094348192021</v>
+        <v>27.16794487423523</v>
       </c>
       <c r="C14">
-        <v>23.11982535571326</v>
+        <v>15.51204847946471</v>
       </c>
       <c r="D14">
-        <v>3.685081369193313</v>
+        <v>6.319064917905484</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.02386327466049</v>
+        <v>18.90216277003524</v>
       </c>
       <c r="G14">
-        <v>1.975631174216886</v>
+        <v>20.82387435908968</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.000426848824734</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>11.46386409113999</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.040346522004858</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.891594783397855</v>
       </c>
       <c r="M14">
-        <v>41.09633729187932</v>
+        <v>15.78994431945103</v>
       </c>
       <c r="N14">
-        <v>12.11902608819032</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.07644419310914</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.74083931298583</v>
+        <v>27.021691133125</v>
       </c>
       <c r="C15">
-        <v>22.97619648305973</v>
+        <v>15.45239866096377</v>
       </c>
       <c r="D15">
-        <v>3.685365434732778</v>
+        <v>6.310516073829615</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>47.72114514352639</v>
+        <v>18.88480035516535</v>
       </c>
       <c r="G15">
-        <v>1.977373988540087</v>
+        <v>20.77855659964992</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.007815576770328</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>11.50136843320387</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.048279869810047</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.874794459266576</v>
       </c>
       <c r="M15">
-        <v>40.7878587305916</v>
+        <v>15.71769678743275</v>
       </c>
       <c r="N15">
-        <v>12.13263507850027</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.0758376466712</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.58320432929853</v>
+        <v>26.16857406510906</v>
       </c>
       <c r="C16">
-        <v>22.14556497304855</v>
+        <v>15.10644923501316</v>
       </c>
       <c r="D16">
-        <v>3.689964632523455</v>
+        <v>6.262115411053494</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>45.98301702232128</v>
+        <v>18.79320125626067</v>
       </c>
       <c r="G16">
-        <v>1.987302623645035</v>
+        <v>20.53009215899649</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.052589745167799</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>11.72010248307771</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.094088616149684</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.77861702803278</v>
       </c>
       <c r="M16">
-        <v>39.03198465604329</v>
+        <v>15.29789314505198</v>
       </c>
       <c r="N16">
-        <v>12.21452356935096</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.07837275071823</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.86276857546992</v>
+        <v>25.63177970892938</v>
       </c>
       <c r="C17">
-        <v>21.6288756467749</v>
+        <v>14.89059459068598</v>
       </c>
       <c r="D17">
-        <v>3.695213944356748</v>
+        <v>6.232954727685427</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>44.93723650982275</v>
+        <v>18.74392744292401</v>
       </c>
       <c r="G17">
-        <v>1.993352505520215</v>
+        <v>20.38760443836006</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.082164597116533</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>11.85757478625788</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.122504186958358</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.71972333980658</v>
       </c>
       <c r="M17">
-        <v>37.96185619336455</v>
+        <v>15.03523961816802</v>
       </c>
       <c r="N17">
-        <v>12.26799309611966</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.08514513531673</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.44442813427904</v>
+        <v>25.31807171587838</v>
       </c>
       <c r="C18">
-        <v>21.32892890875896</v>
+        <v>14.76512986689479</v>
       </c>
       <c r="D18">
-        <v>3.699043735515196</v>
+        <v>6.216379845517578</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>44.36314075003482</v>
+        <v>18.71807697891494</v>
       </c>
       <c r="G18">
-        <v>1.996821284993111</v>
+        <v>20.30926260821225</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.099925282424394</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>11.93781011656528</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.138965078674358</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.685897146912652</v>
       </c>
       <c r="M18">
-        <v>37.34768871094939</v>
+        <v>14.88230598938931</v>
       </c>
       <c r="N18">
-        <v>12.29984539451442</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.09089948027381</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.30208715538109</v>
+        <v>25.21100207467889</v>
       </c>
       <c r="C19">
-        <v>21.22688522953425</v>
+        <v>14.72242672707524</v>
       </c>
       <c r="D19">
-        <v>3.700472479384036</v>
+        <v>6.210802015561578</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>44.16865044399395</v>
+        <v>18.70974711485547</v>
       </c>
       <c r="G19">
-        <v>1.997994231263585</v>
+        <v>20.28335394455951</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.106065297062662</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>11.96517270560761</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.144558721695672</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.674453198215785</v>
       </c>
       <c r="M19">
-        <v>37.13986786493867</v>
+        <v>14.83020736604946</v>
       </c>
       <c r="N19">
-        <v>12.31081071743981</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.09316156254777</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.93986639854939</v>
+        <v>25.68943506089126</v>
       </c>
       <c r="C20">
-        <v>21.68416075877526</v>
+        <v>14.91370886641788</v>
       </c>
       <c r="D20">
-        <v>3.694569521898044</v>
+        <v>6.236038533844422</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>45.04344200665624</v>
+        <v>18.74891376185478</v>
       </c>
       <c r="G20">
-        <v>1.992709705862333</v>
+        <v>20.40239759344463</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.078938138704119</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>11.84281914613002</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.11946723217377</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.725987903529101</v>
       </c>
       <c r="M20">
-        <v>38.07560861983976</v>
+        <v>15.06339271754669</v>
       </c>
       <c r="N20">
-        <v>12.26218561201549</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.08423048385415</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.03671352118985</v>
+        <v>27.23781301084561</v>
       </c>
       <c r="C21">
-        <v>23.18857144400019</v>
+        <v>15.54057862979956</v>
       </c>
       <c r="D21">
-        <v>3.685001092186972</v>
+        <v>6.323174664161095</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.16898188176961</v>
+        <v>18.91062998435562</v>
       </c>
       <c r="G21">
-        <v>1.974794234454271</v>
+        <v>20.8458052565002</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.99692768494926</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>11.44594888827113</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.036548318537624</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.899652457876987</v>
       </c>
       <c r="M21">
-        <v>41.24452772840301</v>
+        <v>15.82448615164736</v>
       </c>
       <c r="N21">
-        <v>12.1125729487161</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.07684343284713</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.37620546117896</v>
+        <v>28.20606612348858</v>
       </c>
       <c r="C22">
-        <v>24.15044433788102</v>
+        <v>15.93817038063448</v>
       </c>
       <c r="D22">
-        <v>3.68784726179193</v>
+        <v>6.381834579585741</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.21490399880396</v>
+        <v>19.03957986798401</v>
       </c>
       <c r="G22">
-        <v>1.962891851326365</v>
+        <v>21.16851032181129</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.950538446340455</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>11.19791362437529</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.98335837429969</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.013408418775992</v>
       </c>
       <c r="M22">
-        <v>43.35772231492013</v>
+        <v>16.30496421619091</v>
       </c>
       <c r="N22">
-        <v>12.02665076601627</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>13.08980373853234</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.66388405284076</v>
+        <v>27.69326762805224</v>
       </c>
       <c r="C23">
-        <v>23.63885297809368</v>
+        <v>15.72709421426941</v>
       </c>
       <c r="D23">
-        <v>3.685391430514464</v>
+        <v>6.350372448191423</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.12313264466995</v>
+        <v>18.96857881553399</v>
       </c>
       <c r="G23">
-        <v>1.969267516405484</v>
+        <v>20.99323604718841</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.974610966558422</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>11.32920467549057</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.011657093076342</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.952679225846533</v>
       </c>
       <c r="M23">
-        <v>42.22421199126904</v>
+        <v>16.05008864930631</v>
       </c>
       <c r="N23">
-        <v>12.07130898206194</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.08119964350173</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.90502345162841</v>
+        <v>25.66338495959829</v>
       </c>
       <c r="C24">
-        <v>21.65917541097916</v>
+        <v>14.90326315520245</v>
       </c>
       <c r="D24">
-        <v>3.694858355625382</v>
+        <v>6.234643752798484</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>44.99542891715128</v>
+        <v>18.74665174188491</v>
       </c>
       <c r="G24">
-        <v>1.99300034383208</v>
+        <v>20.39569847784723</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.080394466217982</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>11.84948644126121</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.120839851515859</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.723155590879963</v>
       </c>
       <c r="M24">
-        <v>38.02417812623597</v>
+        <v>15.05067071042668</v>
       </c>
       <c r="N24">
-        <v>12.26480773330586</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.08463821550848</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.77591304758468</v>
+        <v>23.28402472086764</v>
       </c>
       <c r="C25">
-        <v>19.41698306620193</v>
+        <v>13.96489088318017</v>
       </c>
       <c r="D25">
-        <v>3.735426281579458</v>
+        <v>6.117389416612815</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>40.79100737866339</v>
+        <v>18.60172805667317</v>
       </c>
       <c r="G25">
-        <v>2.018211441621772</v>
+        <v>19.88851162917389</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.222904184999514</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>12.45487799747697</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.243106346226504</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.47752153715452</v>
       </c>
       <c r="M25">
-        <v>33.53824159617188</v>
+        <v>13.90180026742918</v>
       </c>
       <c r="N25">
-        <v>12.51481959379215</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.15868326833247</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.36630246802594</v>
+        <v>15.51149117908187</v>
       </c>
       <c r="C2">
-        <v>13.23419214769856</v>
+        <v>11.31816739524666</v>
       </c>
       <c r="D2">
-        <v>6.03777981567448</v>
+        <v>9.973725753208287</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18.56966887513918</v>
+        <v>30.12093933366523</v>
       </c>
       <c r="G2">
-        <v>19.626870639607</v>
+        <v>29.46207227337908</v>
       </c>
       <c r="H2">
-        <v>8.349683410586886</v>
+        <v>14.58530314740084</v>
       </c>
       <c r="I2">
-        <v>12.93475411628073</v>
+        <v>22.90330466232728</v>
       </c>
       <c r="J2">
-        <v>6.337217274217366</v>
+        <v>10.62414317297589</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.299282158522017</v>
+        <v>11.75369386101375</v>
       </c>
       <c r="M2">
-        <v>12.99773662758327</v>
+        <v>15.81922631211973</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.26700012753926</v>
+        <v>22.27222467292891</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.96201694674141</v>
+        <v>14.92338489953312</v>
       </c>
       <c r="C3">
-        <v>12.71617850847971</v>
+        <v>11.1195265447466</v>
       </c>
       <c r="D3">
-        <v>5.988109380181792</v>
+        <v>9.985187642864499</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.59089202000014</v>
+        <v>30.2490390335542</v>
       </c>
       <c r="G3">
-        <v>19.51496946870786</v>
+        <v>29.60978525125268</v>
       </c>
       <c r="H3">
-        <v>8.448059892099858</v>
+        <v>14.64447923465788</v>
       </c>
       <c r="I3">
-        <v>13.27980117983602</v>
+        <v>23.04189895437295</v>
       </c>
       <c r="J3">
-        <v>6.403651586923663</v>
+        <v>10.64916100325633</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.180629989467843</v>
+        <v>11.75182347392452</v>
       </c>
       <c r="M3">
-        <v>12.35081077266318</v>
+        <v>15.67643477404337</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.37063773856001</v>
+        <v>22.37732768848678</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.04781438973756</v>
+        <v>14.55018300177139</v>
       </c>
       <c r="C4">
-        <v>12.38770027195842</v>
+        <v>10.99563146837196</v>
       </c>
       <c r="D4">
-        <v>5.959746237304877</v>
+        <v>9.993416748024108</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18.62384062022405</v>
+        <v>30.33506072136976</v>
       </c>
       <c r="G4">
-        <v>19.47677474919293</v>
+        <v>29.7107304879151</v>
       </c>
       <c r="H4">
-        <v>8.514251890289541</v>
+        <v>14.68329193825204</v>
       </c>
       <c r="I4">
-        <v>13.50106523438744</v>
+        <v>23.13169962287188</v>
       </c>
       <c r="J4">
-        <v>6.445785013377446</v>
+        <v>10.66534036450876</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.109008709053811</v>
+        <v>11.75186771082815</v>
       </c>
       <c r="M4">
-        <v>11.93763225390569</v>
+        <v>15.58917950923295</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.44810342716141</v>
+        <v>22.44696958523119</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.6621560705454</v>
+        <v>14.39525485543039</v>
       </c>
       <c r="C5">
-        <v>12.25136992594328</v>
+        <v>10.94470750471847</v>
       </c>
       <c r="D5">
-        <v>5.948727660562291</v>
+        <v>9.997070284671601</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.6420825985416</v>
+        <v>30.37196401799001</v>
       </c>
       <c r="G5">
-        <v>19.4685927284476</v>
+        <v>29.75443080534808</v>
       </c>
       <c r="H5">
-        <v>8.542631478480896</v>
+        <v>14.69973187842016</v>
       </c>
       <c r="I5">
-        <v>13.59354894397237</v>
+        <v>23.1694785936845</v>
       </c>
       <c r="J5">
-        <v>6.463296925220137</v>
+        <v>10.67213994727439</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.080158934644625</v>
+        <v>11.75218688854104</v>
       </c>
       <c r="M5">
-        <v>11.76541453755691</v>
+        <v>15.55375513026389</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.48299280037087</v>
+        <v>22.47663184946208</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.59732454029914</v>
+        <v>14.36936353037539</v>
       </c>
       <c r="C6">
-        <v>12.22858767413133</v>
+        <v>10.93622677396244</v>
       </c>
       <c r="D6">
-        <v>5.946930690975337</v>
+        <v>9.997695091725294</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>18.645396770609</v>
+        <v>30.3782033252387</v>
       </c>
       <c r="G6">
-        <v>19.46767102731453</v>
+        <v>29.76184170607703</v>
       </c>
       <c r="H6">
-        <v>8.547427400507368</v>
+        <v>14.70249938029249</v>
       </c>
       <c r="I6">
-        <v>13.60904447134385</v>
+        <v>23.17582335593648</v>
       </c>
       <c r="J6">
-        <v>6.466225565600349</v>
+        <v>10.6732814939366</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.07538954982979</v>
+        <v>11.7522581115442</v>
       </c>
       <c r="M6">
-        <v>11.73659131834963</v>
+        <v>15.54788175841359</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.4889822690261</v>
+        <v>22.48163465866283</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.04266641989948</v>
+        <v>14.54810482923856</v>
       </c>
       <c r="C7">
-        <v>12.38587147823523</v>
+        <v>10.99494638792035</v>
       </c>
       <c r="D7">
-        <v>5.959595448910979</v>
+        <v>9.993464805110928</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.62406739947055</v>
+        <v>30.33555093188021</v>
       </c>
       <c r="G7">
-        <v>19.47663491374415</v>
+        <v>29.71130948009614</v>
       </c>
       <c r="H7">
-        <v>8.514628998679139</v>
+        <v>14.6835111283781</v>
       </c>
       <c r="I7">
-        <v>13.50230317885276</v>
+        <v>23.13220432498719</v>
       </c>
       <c r="J7">
-        <v>6.446019793561892</v>
+        <v>10.66543122972369</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.108618233373792</v>
+        <v>11.75187079442604</v>
       </c>
       <c r="M7">
-        <v>11.93532498299991</v>
+        <v>15.58870118976916</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.44856071262716</v>
+        <v>22.44736443007231</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.89286080670731</v>
+        <v>15.3113357642575</v>
       </c>
       <c r="C8">
-        <v>13.05782481853347</v>
+        <v>11.25010542835324</v>
       </c>
       <c r="D8">
-        <v>6.020212377977805</v>
+        <v>9.977430838889136</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18.57273777482005</v>
+        <v>30.16357653086141</v>
       </c>
       <c r="G8">
-        <v>19.58178813654771</v>
+        <v>29.5108689323072</v>
       </c>
       <c r="H8">
-        <v>8.382371327307533</v>
+        <v>14.60519282977899</v>
       </c>
       <c r="I8">
-        <v>13.05174330041807</v>
+        <v>22.9501169088775</v>
       </c>
       <c r="J8">
-        <v>6.359848017517302</v>
+        <v>10.63259983617021</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.258131392710347</v>
+        <v>11.7528021807997</v>
       </c>
       <c r="M8">
-        <v>12.77808255298306</v>
+        <v>15.76992127397374</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.29976807028191</v>
+        <v>22.30740285409144</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.11110668352054</v>
+        <v>16.70442027646896</v>
       </c>
       <c r="C9">
-        <v>14.28739129813677</v>
+        <v>11.73308818728836</v>
       </c>
       <c r="D9">
-        <v>6.155855266496391</v>
+        <v>9.955418966716804</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>18.63848889074633</v>
+        <v>29.88497071742011</v>
       </c>
       <c r="G9">
-        <v>20.04149841070794</v>
+        <v>29.1996843089001</v>
       </c>
       <c r="H9">
-        <v>8.171340552093891</v>
+        <v>14.47126412796695</v>
       </c>
       <c r="I9">
-        <v>12.24542378293532</v>
+        <v>22.6302788967511</v>
       </c>
       <c r="J9">
-        <v>6.201300224722246</v>
+        <v>10.57468351002037</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.559922641747836</v>
+        <v>11.7640354469137</v>
       </c>
       <c r="M9">
-        <v>14.29805401151087</v>
+        <v>16.12740943806096</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.12493674303461</v>
+        <v>22.07355373833452</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.22915570415607</v>
+        <v>17.65603805414819</v>
       </c>
       <c r="C10">
-        <v>15.1309005127213</v>
+        <v>12.07468889172002</v>
       </c>
       <c r="D10">
-        <v>6.265469459419276</v>
+        <v>9.944964051428197</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>18.79916504826714</v>
+        <v>29.71625742466092</v>
       </c>
       <c r="G10">
-        <v>20.54684354337195</v>
+        <v>29.0217108889122</v>
       </c>
       <c r="H10">
-        <v>8.049318429769583</v>
+        <v>14.38483200964384</v>
       </c>
       <c r="I10">
-        <v>11.70457678753859</v>
+        <v>22.41787651599918</v>
       </c>
       <c r="J10">
-        <v>6.090861924299118</v>
+        <v>10.53603630527692</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.785343099438395</v>
+        <v>11.77794496588465</v>
       </c>
       <c r="M10">
-        <v>15.3276100054433</v>
+        <v>16.38972189098439</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.0778561050459</v>
+        <v>21.92661896987399</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.14003456291109</v>
+        <v>18.07187358306349</v>
       </c>
       <c r="C11">
-        <v>15.50065768763189</v>
+        <v>12.22669618548312</v>
       </c>
       <c r="D11">
-        <v>6.317427852867322</v>
+        <v>9.941441766005859</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.89881163172018</v>
+        <v>29.647365659313</v>
       </c>
       <c r="G11">
-        <v>20.81516452707251</v>
+        <v>28.95189426355816</v>
       </c>
       <c r="H11">
-        <v>8.001830207245963</v>
+        <v>14.34810693896811</v>
       </c>
       <c r="I11">
-        <v>11.47102097758767</v>
+        <v>22.32612877630951</v>
       </c>
       <c r="J11">
-        <v>6.041862295520451</v>
+        <v>10.51929434377696</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.888381721733571</v>
+        <v>11.78548288029545</v>
       </c>
       <c r="M11">
-        <v>15.7761508639337</v>
+        <v>16.5086383434459</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.07630453300611</v>
+        <v>21.86520051788125</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.47746156673422</v>
+        <v>18.22678529807224</v>
       </c>
       <c r="C12">
-        <v>15.63860390286007</v>
+        <v>12.28372972706678</v>
       </c>
       <c r="D12">
-        <v>6.337397566005968</v>
+        <v>9.940284667368077</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>18.94052473549488</v>
+        <v>29.62241176940973</v>
       </c>
       <c r="G12">
-        <v>20.92241339896142</v>
+        <v>28.92707058838075</v>
       </c>
       <c r="H12">
-        <v>7.985077599368156</v>
+        <v>14.33457289273097</v>
       </c>
       <c r="I12">
-        <v>11.38451019506878</v>
+        <v>22.29208572444155</v>
       </c>
       <c r="J12">
-        <v>6.023479653112888</v>
+        <v>10.51307461978842</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.927445974276248</v>
+        <v>11.78850965335472</v>
       </c>
       <c r="M12">
-        <v>15.94309989902681</v>
+        <v>16.55358122384735</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.0787546166951</v>
+        <v>21.8427249188574</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.40512325557383</v>
+        <v>18.19353746273897</v>
       </c>
       <c r="C13">
-        <v>15.60898781879969</v>
+        <v>12.27147065893798</v>
       </c>
       <c r="D13">
-        <v>6.333083760233545</v>
+        <v>9.940526021294231</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>18.93136167317727</v>
+        <v>29.62773554002184</v>
       </c>
       <c r="G13">
-        <v>20.89906307151328</v>
+        <v>28.93234482963922</v>
       </c>
       <c r="H13">
-        <v>7.988629587185857</v>
+        <v>14.33747110453746</v>
       </c>
       <c r="I13">
-        <v>11.40305346488951</v>
+        <v>22.29938639851818</v>
       </c>
       <c r="J13">
-        <v>6.027431108194142</v>
+        <v>10.51440881585322</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.919031139101536</v>
+        <v>11.78785014759651</v>
       </c>
       <c r="M13">
-        <v>15.90727430275167</v>
+        <v>16.54390635254451</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.07808898337331</v>
+        <v>21.8475306124044</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.16794487423523</v>
+        <v>18.0846700314759</v>
       </c>
       <c r="C14">
-        <v>15.51204847946471</v>
+        <v>12.23139918428473</v>
       </c>
       <c r="D14">
-        <v>6.319064917905484</v>
+        <v>9.941343033291092</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>18.90216277003524</v>
+        <v>29.64528993899845</v>
       </c>
       <c r="G14">
-        <v>20.82387435908968</v>
+        <v>28.94981958493383</v>
       </c>
       <c r="H14">
-        <v>8.000426848824734</v>
+        <v>14.34698601035103</v>
       </c>
       <c r="I14">
-        <v>11.46386409113999</v>
+        <v>22.32331401513142</v>
       </c>
       <c r="J14">
-        <v>6.040346522004858</v>
+        <v>10.51878023951483</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.891594783397855</v>
+        <v>11.7857284511867</v>
       </c>
       <c r="M14">
-        <v>15.78994431945103</v>
+        <v>16.5123377543081</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.07644419310914</v>
+        <v>21.86333574573254</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.021691133125</v>
+        <v>18.01764988672964</v>
       </c>
       <c r="C15">
-        <v>15.45239866096377</v>
+        <v>12.20678426829772</v>
       </c>
       <c r="D15">
-        <v>6.310516073829615</v>
+        <v>9.941866468939235</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.88480035516535</v>
+        <v>29.65619030633367</v>
       </c>
       <c r="G15">
-        <v>20.77855659964992</v>
+        <v>28.96073395608203</v>
       </c>
       <c r="H15">
-        <v>8.007815576770328</v>
+        <v>14.35286273381032</v>
       </c>
       <c r="I15">
-        <v>11.50136843320387</v>
+        <v>22.33806147417646</v>
       </c>
       <c r="J15">
-        <v>6.048279869810047</v>
+        <v>10.5214734867609</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.874794459266576</v>
+        <v>11.78445124054161</v>
       </c>
       <c r="M15">
-        <v>15.71769678743275</v>
+        <v>16.49298873259165</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.0758376466712</v>
+        <v>21.87311878857148</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.16857406510906</v>
+        <v>17.62850979813664</v>
       </c>
       <c r="C16">
-        <v>15.10644923501316</v>
+        <v>12.06468310765908</v>
       </c>
       <c r="D16">
-        <v>6.262115411053494</v>
+        <v>9.945219008275989</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.79320125626067</v>
+        <v>29.72091811806928</v>
       </c>
       <c r="G16">
-        <v>20.53009215899649</v>
+        <v>29.02649884616486</v>
       </c>
       <c r="H16">
-        <v>8.052589745167799</v>
+        <v>14.38728426541563</v>
       </c>
       <c r="I16">
-        <v>11.72010248307771</v>
+        <v>22.42397044188238</v>
       </c>
       <c r="J16">
-        <v>6.094088616149684</v>
+        <v>10.53714726600096</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.77861702803278</v>
+        <v>11.77747655613562</v>
       </c>
       <c r="M16">
-        <v>15.29789314505198</v>
+        <v>16.38193965617891</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.07837275071823</v>
+        <v>21.93074214042347</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.63177970892938</v>
+        <v>17.3853375252234</v>
       </c>
       <c r="C17">
-        <v>14.89059459068598</v>
+        <v>11.97661079500429</v>
       </c>
       <c r="D17">
-        <v>6.232954727685427</v>
+        <v>9.947591186051881</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.74392744292401</v>
+        <v>29.76264182192724</v>
       </c>
       <c r="G17">
-        <v>20.38760443836006</v>
+        <v>29.06970640613309</v>
       </c>
       <c r="H17">
-        <v>8.082164597116533</v>
+        <v>14.40906498552548</v>
       </c>
       <c r="I17">
-        <v>11.85757478625788</v>
+        <v>22.47792057210122</v>
       </c>
       <c r="J17">
-        <v>6.122504186958358</v>
+        <v>10.54697709057359</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.71972333980658</v>
+        <v>11.77350662383528</v>
       </c>
       <c r="M17">
-        <v>15.03523961816802</v>
+        <v>16.31368858703945</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.08514513531673</v>
+        <v>21.96748286389423</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.31807171587838</v>
+        <v>17.24387065438736</v>
       </c>
       <c r="C18">
-        <v>14.76512986689479</v>
+        <v>11.92563728678734</v>
       </c>
       <c r="D18">
-        <v>6.216379845517578</v>
+        <v>9.949071766379767</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.71807697891494</v>
+        <v>29.78737946896513</v>
       </c>
       <c r="G18">
-        <v>20.30926260821225</v>
+        <v>29.09560654108995</v>
       </c>
       <c r="H18">
-        <v>8.099925282424394</v>
+        <v>14.42183677394699</v>
       </c>
       <c r="I18">
-        <v>11.93781011656528</v>
+        <v>22.50941020277232</v>
       </c>
       <c r="J18">
-        <v>6.138965078674358</v>
+        <v>10.55270993325608</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.685897146912652</v>
+        <v>11.77133726110182</v>
       </c>
       <c r="M18">
-        <v>14.88230598938931</v>
+        <v>16.27439543250092</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.09089948027381</v>
+        <v>21.98912544077533</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.21100207467889</v>
+        <v>17.19570087247255</v>
       </c>
       <c r="C19">
-        <v>14.72242672707524</v>
+        <v>11.90832543847108</v>
       </c>
       <c r="D19">
-        <v>6.210802015561578</v>
+        <v>9.94959303751215</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.70974711485547</v>
+        <v>29.79588205444853</v>
       </c>
       <c r="G19">
-        <v>20.28335394455951</v>
+        <v>29.10455555709101</v>
       </c>
       <c r="H19">
-        <v>8.106065297062662</v>
+        <v>14.42620300509818</v>
       </c>
       <c r="I19">
-        <v>11.96517270560761</v>
+        <v>22.52015091266237</v>
       </c>
       <c r="J19">
-        <v>6.144558721695672</v>
+        <v>10.55466455776034</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.674453198215785</v>
+        <v>11.77062238946905</v>
       </c>
       <c r="M19">
-        <v>14.83020736604946</v>
+        <v>16.26108599393671</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.09316156254777</v>
+        <v>21.99654081340723</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.68943506089126</v>
+        <v>17.41139007759656</v>
       </c>
       <c r="C20">
-        <v>14.91370886641788</v>
+        <v>11.98601931930802</v>
       </c>
       <c r="D20">
-        <v>6.236038533844422</v>
+        <v>9.947326645772387</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>18.74891376185478</v>
+        <v>29.75812371974068</v>
       </c>
       <c r="G20">
-        <v>20.40239759344463</v>
+        <v>29.06499830618112</v>
       </c>
       <c r="H20">
-        <v>8.078938138704119</v>
+        <v>14.40672112773184</v>
       </c>
       <c r="I20">
-        <v>11.84281914613002</v>
+        <v>22.47212999880664</v>
       </c>
       <c r="J20">
-        <v>6.11946723217377</v>
+        <v>10.54592251791502</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.725987903529101</v>
+        <v>11.77391743972512</v>
       </c>
       <c r="M20">
-        <v>15.06339271754669</v>
+        <v>16.32095806572435</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.08423048385415</v>
+        <v>21.96351892104989</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.23781301084561</v>
+        <v>18.1167171583991</v>
       </c>
       <c r="C21">
-        <v>15.54057862979956</v>
+        <v>12.2431838015657</v>
       </c>
       <c r="D21">
-        <v>6.323174664161095</v>
+        <v>9.941098266800614</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.91062998435562</v>
+        <v>29.64010297978207</v>
       </c>
       <c r="G21">
-        <v>20.8458052565002</v>
+        <v>28.94464292097758</v>
       </c>
       <c r="H21">
-        <v>7.99692768494926</v>
+        <v>14.34418113008588</v>
       </c>
       <c r="I21">
-        <v>11.44594888827113</v>
+        <v>22.31626691042366</v>
       </c>
       <c r="J21">
-        <v>6.036548318537624</v>
+        <v>10.51749299132795</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.899652457876987</v>
+        <v>11.78634698205807</v>
       </c>
       <c r="M21">
-        <v>15.82448615164736</v>
+        <v>16.52161284066838</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.07684343284713</v>
+        <v>21.85867214593064</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.20606612348858</v>
+        <v>18.56275186390265</v>
       </c>
       <c r="C22">
-        <v>15.93817038063448</v>
+        <v>12.40815883860311</v>
       </c>
       <c r="D22">
-        <v>6.381834579585741</v>
+        <v>9.938057337769036</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19.03957986798401</v>
+        <v>29.56958081496439</v>
       </c>
       <c r="G22">
-        <v>21.16851032181129</v>
+        <v>28.87539854237577</v>
       </c>
       <c r="H22">
-        <v>7.950538446340455</v>
+        <v>14.30548143520642</v>
       </c>
       <c r="I22">
-        <v>11.19791362437529</v>
+        <v>22.21847997471069</v>
       </c>
       <c r="J22">
-        <v>5.98335837429969</v>
+        <v>10.49961240602781</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.013408418775992</v>
+        <v>11.7954740121019</v>
       </c>
       <c r="M22">
-        <v>16.30496421619091</v>
+        <v>16.65222503768569</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.08980373853234</v>
+        <v>21.79470931480719</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.69326762805224</v>
+        <v>18.32609189438492</v>
       </c>
       <c r="C23">
-        <v>15.72709421426941</v>
+        <v>12.32040486037802</v>
       </c>
       <c r="D23">
-        <v>6.350372448191423</v>
+        <v>9.939586362467525</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>18.96857881553399</v>
+        <v>29.60661356500694</v>
       </c>
       <c r="G23">
-        <v>20.99323604718841</v>
+        <v>28.91149036070665</v>
       </c>
       <c r="H23">
-        <v>7.974610966558422</v>
+        <v>14.3259372748158</v>
       </c>
       <c r="I23">
-        <v>11.32920467549057</v>
+        <v>22.27029789559286</v>
       </c>
       <c r="J23">
-        <v>6.011657093076342</v>
+        <v>10.50909175765992</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.952679225846533</v>
+        <v>11.79051150514623</v>
       </c>
       <c r="M23">
-        <v>16.05008864930631</v>
+        <v>16.5825726112094</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.08119964350173</v>
+        <v>21.82842938362489</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.66338495959829</v>
+        <v>17.39961689336808</v>
       </c>
       <c r="C24">
-        <v>14.90326315520245</v>
+        <v>11.98176678000518</v>
       </c>
       <c r="D24">
-        <v>6.234643752798484</v>
+        <v>9.947445880622267</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.74665174188491</v>
+        <v>29.76016401744542</v>
       </c>
       <c r="G24">
-        <v>20.39569847784723</v>
+        <v>29.06712353870992</v>
       </c>
       <c r="H24">
-        <v>8.080394466217982</v>
+        <v>14.40778000784451</v>
       </c>
       <c r="I24">
-        <v>11.84948644126121</v>
+        <v>22.47474644358362</v>
       </c>
       <c r="J24">
-        <v>6.120839851515859</v>
+        <v>10.54639903616456</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.723155590879963</v>
+        <v>11.77373135773882</v>
       </c>
       <c r="M24">
-        <v>15.05067071042668</v>
+        <v>16.31767170258288</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.08463821550848</v>
+        <v>21.96530940050605</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.28402472086764</v>
+        <v>16.33962072398278</v>
       </c>
       <c r="C25">
-        <v>13.96489088318017</v>
+        <v>11.60457105198225</v>
       </c>
       <c r="D25">
-        <v>6.117389416612815</v>
+        <v>9.960367294137939</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>18.60172805667317</v>
+        <v>29.95403922317672</v>
       </c>
       <c r="G25">
-        <v>19.88851162917389</v>
+        <v>29.27502438415561</v>
       </c>
       <c r="H25">
-        <v>8.222904184999514</v>
+        <v>14.50539308338026</v>
       </c>
       <c r="I25">
-        <v>12.45487799747697</v>
+        <v>22.71282959623653</v>
       </c>
       <c r="J25">
-        <v>6.243106346226504</v>
+        <v>10.58966312356299</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.47752153715452</v>
+        <v>11.75999724982064</v>
       </c>
       <c r="M25">
-        <v>13.90180026742918</v>
+        <v>16.03064061762145</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.15868326833247</v>
+        <v>22.13245625636194</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.51149117908187</v>
+        <v>21.36630246802598</v>
       </c>
       <c r="C2">
-        <v>11.31816739524666</v>
+        <v>13.23419214769866</v>
       </c>
       <c r="D2">
-        <v>9.973725753208287</v>
+        <v>6.037779815674494</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.12093933366523</v>
+        <v>18.56966887513901</v>
       </c>
       <c r="G2">
-        <v>29.46207227337908</v>
+        <v>19.62687063960689</v>
       </c>
       <c r="H2">
-        <v>14.58530314740084</v>
+        <v>8.349683410586715</v>
       </c>
       <c r="I2">
-        <v>22.90330466232728</v>
+        <v>12.93475411628057</v>
       </c>
       <c r="J2">
-        <v>10.62414317297589</v>
+        <v>6.337217274217465</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.75369386101375</v>
+        <v>7.299282158522019</v>
       </c>
       <c r="M2">
-        <v>15.81922631211973</v>
+        <v>12.99773662758325</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.27222467292891</v>
+        <v>13.26700012753909</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.92338489953312</v>
+        <v>19.96201694674138</v>
       </c>
       <c r="C3">
-        <v>11.1195265447466</v>
+        <v>12.71617850847973</v>
       </c>
       <c r="D3">
-        <v>9.985187642864499</v>
+        <v>5.988109380181797</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.2490390335542</v>
+        <v>18.59089202000009</v>
       </c>
       <c r="G3">
-        <v>29.60978525125268</v>
+        <v>19.51496946870772</v>
       </c>
       <c r="H3">
-        <v>14.64447923465788</v>
+        <v>8.448059892099858</v>
       </c>
       <c r="I3">
-        <v>23.04189895437295</v>
+        <v>13.27980117983596</v>
       </c>
       <c r="J3">
-        <v>10.64916100325633</v>
+        <v>6.403651586923596</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.75182347392452</v>
+        <v>7.180629989467821</v>
       </c>
       <c r="M3">
-        <v>15.67643477404337</v>
+        <v>12.35081077266316</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.37732768848678</v>
+        <v>13.37063773855996</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.55018300177139</v>
+        <v>19.04781438973755</v>
       </c>
       <c r="C4">
-        <v>10.99563146837196</v>
+        <v>12.38770027195853</v>
       </c>
       <c r="D4">
-        <v>9.993416748024108</v>
+        <v>5.959746237304872</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30.33506072136976</v>
+        <v>18.62384062022383</v>
       </c>
       <c r="G4">
-        <v>29.7107304879151</v>
+        <v>19.47677474919265</v>
       </c>
       <c r="H4">
-        <v>14.68329193825204</v>
+        <v>8.514251890289474</v>
       </c>
       <c r="I4">
-        <v>23.13169962287188</v>
+        <v>13.50106523438734</v>
       </c>
       <c r="J4">
-        <v>10.66534036450876</v>
+        <v>6.445785013377479</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.75186771082815</v>
+        <v>7.109008709053785</v>
       </c>
       <c r="M4">
-        <v>15.58917950923295</v>
+        <v>11.93763225390566</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.44696958523119</v>
+        <v>13.44810342716126</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.39525485543039</v>
+        <v>18.66215607054543</v>
       </c>
       <c r="C5">
-        <v>10.94470750471847</v>
+        <v>12.25136992594311</v>
       </c>
       <c r="D5">
-        <v>9.997070284671601</v>
+        <v>5.948727660562075</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.37196401799001</v>
+        <v>18.64208259854155</v>
       </c>
       <c r="G5">
-        <v>29.75443080534808</v>
+        <v>19.46859272844769</v>
       </c>
       <c r="H5">
-        <v>14.69973187842016</v>
+        <v>8.542631478480898</v>
       </c>
       <c r="I5">
-        <v>23.1694785936845</v>
+        <v>13.59354894397238</v>
       </c>
       <c r="J5">
-        <v>10.67213994727439</v>
+        <v>6.463296925220171</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.75218688854104</v>
+        <v>7.080158934644619</v>
       </c>
       <c r="M5">
-        <v>15.55375513026389</v>
+        <v>11.76541453755689</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.47663184946208</v>
+        <v>13.48299280037093</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.36936353037539</v>
+        <v>18.59732454029917</v>
       </c>
       <c r="C6">
-        <v>10.93622677396244</v>
+        <v>12.22858767413122</v>
       </c>
       <c r="D6">
-        <v>9.997695091725294</v>
+        <v>5.94693069097522</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.3782033252387</v>
+        <v>18.64539677060883</v>
       </c>
       <c r="G6">
-        <v>29.76184170607703</v>
+        <v>19.4676710273144</v>
       </c>
       <c r="H6">
-        <v>14.70249938029249</v>
+        <v>8.547427400507308</v>
       </c>
       <c r="I6">
-        <v>23.17582335593648</v>
+        <v>13.60904447134375</v>
       </c>
       <c r="J6">
-        <v>10.6732814939366</v>
+        <v>6.466225565600348</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.7522581115442</v>
+        <v>7.075389549829729</v>
       </c>
       <c r="M6">
-        <v>15.54788175841359</v>
+        <v>11.7365913183496</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.48163465866283</v>
+        <v>13.48898226902601</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.54810482923856</v>
+        <v>19.04266641989945</v>
       </c>
       <c r="C7">
-        <v>10.99494638792035</v>
+        <v>12.38587147823509</v>
       </c>
       <c r="D7">
-        <v>9.993464805110928</v>
+        <v>5.959595448911029</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30.33555093188021</v>
+        <v>18.62406739947082</v>
       </c>
       <c r="G7">
-        <v>29.71130948009614</v>
+        <v>19.47663491374463</v>
       </c>
       <c r="H7">
-        <v>14.6835111283781</v>
+        <v>8.514628998679202</v>
       </c>
       <c r="I7">
-        <v>23.13220432498719</v>
+        <v>13.50230317885292</v>
       </c>
       <c r="J7">
-        <v>10.66543122972369</v>
+        <v>6.446019793561825</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.75187079442604</v>
+        <v>7.108618233373789</v>
       </c>
       <c r="M7">
-        <v>15.58870118976916</v>
+        <v>11.93532498299993</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.44736443007231</v>
+        <v>13.44856071262733</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.3113357642575</v>
+        <v>20.89286080670737</v>
       </c>
       <c r="C8">
-        <v>11.25010542835324</v>
+        <v>13.05782481853345</v>
       </c>
       <c r="D8">
-        <v>9.977430838889136</v>
+        <v>6.020212377977637</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.16357653086141</v>
+        <v>18.5727377748198</v>
       </c>
       <c r="G8">
-        <v>29.5108689323072</v>
+        <v>19.58178813654756</v>
       </c>
       <c r="H8">
-        <v>14.60519282977899</v>
+        <v>8.382371327307469</v>
       </c>
       <c r="I8">
-        <v>22.9501169088775</v>
+        <v>13.05174330041794</v>
       </c>
       <c r="J8">
-        <v>10.63259983617021</v>
+        <v>6.359848017517302</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.7528021807997</v>
+        <v>7.258131392710256</v>
       </c>
       <c r="M8">
-        <v>15.76992127397374</v>
+        <v>12.77808255298302</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.30740285409144</v>
+        <v>13.29976807028177</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.70442027646896</v>
+        <v>24.11110668352056</v>
       </c>
       <c r="C9">
-        <v>11.73308818728836</v>
+        <v>14.28739129813685</v>
       </c>
       <c r="D9">
-        <v>9.955418966716804</v>
+        <v>6.155855266496451</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>29.88497071742011</v>
+        <v>18.63848889074633</v>
       </c>
       <c r="G9">
-        <v>29.1996843089001</v>
+        <v>20.04149841070796</v>
       </c>
       <c r="H9">
-        <v>14.47126412796695</v>
+        <v>8.171340552093898</v>
       </c>
       <c r="I9">
-        <v>22.6302788967511</v>
+        <v>12.24542378293527</v>
       </c>
       <c r="J9">
-        <v>10.57468351002037</v>
+        <v>6.201300224722144</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.7640354469137</v>
+        <v>7.559922641747814</v>
       </c>
       <c r="M9">
-        <v>16.12740943806096</v>
+        <v>14.29805401151085</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.07355373833452</v>
+        <v>13.12493674303453</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.65603805414819</v>
+        <v>26.22915570415608</v>
       </c>
       <c r="C10">
-        <v>12.07468889172002</v>
+        <v>15.13090051272115</v>
       </c>
       <c r="D10">
-        <v>9.944964051428197</v>
+        <v>6.265469459419237</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.71625742466092</v>
+        <v>18.79916504826702</v>
       </c>
       <c r="G10">
-        <v>29.0217108889122</v>
+        <v>20.54684354337191</v>
       </c>
       <c r="H10">
-        <v>14.38483200964384</v>
+        <v>8.049318429769524</v>
       </c>
       <c r="I10">
-        <v>22.41787651599918</v>
+        <v>11.70457678753844</v>
       </c>
       <c r="J10">
-        <v>10.53603630527692</v>
+        <v>6.090861924299187</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.77794496588465</v>
+        <v>7.785343099438458</v>
       </c>
       <c r="M10">
-        <v>16.38972189098439</v>
+        <v>15.3276100054433</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.92661896987399</v>
+        <v>13.07785610504581</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.07187358306349</v>
+        <v>27.14003456291108</v>
       </c>
       <c r="C11">
-        <v>12.22669618548312</v>
+        <v>15.50065768763195</v>
       </c>
       <c r="D11">
-        <v>9.941441766005859</v>
+        <v>6.317427852867199</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.647365659313</v>
+        <v>18.89881163172009</v>
       </c>
       <c r="G11">
-        <v>28.95189426355816</v>
+        <v>20.81516452707238</v>
       </c>
       <c r="H11">
-        <v>14.34810693896811</v>
+        <v>8.001830207245945</v>
       </c>
       <c r="I11">
-        <v>22.32612877630951</v>
+        <v>11.4710209775876</v>
       </c>
       <c r="J11">
-        <v>10.51929434377696</v>
+        <v>6.041862295520519</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.78548288029545</v>
+        <v>7.888381721733571</v>
       </c>
       <c r="M11">
-        <v>16.5086383434459</v>
+        <v>15.77615086393369</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.86520051788125</v>
+        <v>13.07630453300604</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.22678529807224</v>
+        <v>27.4774615667342</v>
       </c>
       <c r="C12">
-        <v>12.28372972706678</v>
+        <v>15.63860390286013</v>
       </c>
       <c r="D12">
-        <v>9.940284667368077</v>
+        <v>6.337397566006082</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.62241176940973</v>
+        <v>18.940524735495</v>
       </c>
       <c r="G12">
-        <v>28.92707058838075</v>
+        <v>20.9224133989615</v>
       </c>
       <c r="H12">
-        <v>14.33457289273097</v>
+        <v>7.985077599368161</v>
       </c>
       <c r="I12">
-        <v>22.29208572444155</v>
+        <v>11.38451019506891</v>
       </c>
       <c r="J12">
-        <v>10.51307461978842</v>
+        <v>6.023479653112923</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.78850965335472</v>
+        <v>7.927445974276259</v>
       </c>
       <c r="M12">
-        <v>16.55358122384735</v>
+        <v>15.94309989902681</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.8427249188574</v>
+        <v>13.07875461669518</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.19353746273897</v>
+        <v>27.40512325557383</v>
       </c>
       <c r="C13">
-        <v>12.27147065893798</v>
+        <v>15.60898781879966</v>
       </c>
       <c r="D13">
-        <v>9.940526021294231</v>
+        <v>6.333083760233442</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.62773554002184</v>
+        <v>18.93136167317724</v>
       </c>
       <c r="G13">
-        <v>28.93234482963922</v>
+        <v>20.89906307151338</v>
       </c>
       <c r="H13">
-        <v>14.33747110453746</v>
+        <v>7.988629587185857</v>
       </c>
       <c r="I13">
-        <v>22.29938639851818</v>
+        <v>11.40305346488951</v>
       </c>
       <c r="J13">
-        <v>10.51440881585322</v>
+        <v>6.027431108194172</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.78785014759651</v>
+        <v>7.919031139101559</v>
       </c>
       <c r="M13">
-        <v>16.54390635254451</v>
+        <v>15.90727430275167</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.8475306124044</v>
+        <v>13.07808898337332</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.0846700314759</v>
+        <v>27.16794487423522</v>
       </c>
       <c r="C14">
-        <v>12.23139918428473</v>
+        <v>15.51204847946476</v>
       </c>
       <c r="D14">
-        <v>9.941343033291092</v>
+        <v>6.319064917905479</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.64528993899845</v>
+        <v>18.9021627700353</v>
       </c>
       <c r="G14">
-        <v>28.94981958493383</v>
+        <v>20.82387435908976</v>
       </c>
       <c r="H14">
-        <v>14.34698601035103</v>
+        <v>8.000426848824741</v>
       </c>
       <c r="I14">
-        <v>22.32331401513142</v>
+        <v>11.46386409114006</v>
       </c>
       <c r="J14">
-        <v>10.51878023951483</v>
+        <v>6.04034652200489</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.7857284511867</v>
+        <v>7.89159478339785</v>
       </c>
       <c r="M14">
-        <v>16.5123377543081</v>
+        <v>15.78994431945104</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.86333574573254</v>
+        <v>13.07644419310921</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.01764988672964</v>
+        <v>27.02169113312504</v>
       </c>
       <c r="C15">
-        <v>12.20678426829772</v>
+        <v>15.45239866096362</v>
       </c>
       <c r="D15">
-        <v>9.941866468939235</v>
+        <v>6.310516073829561</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>29.65619030633367</v>
+        <v>18.88480035516537</v>
       </c>
       <c r="G15">
-        <v>28.96073395608203</v>
+        <v>20.77855659964993</v>
       </c>
       <c r="H15">
-        <v>14.35286273381032</v>
+        <v>8.007815576770353</v>
       </c>
       <c r="I15">
-        <v>22.33806147417646</v>
+        <v>11.50136843320382</v>
       </c>
       <c r="J15">
-        <v>10.5214734867609</v>
+        <v>6.048279869810111</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.78445124054161</v>
+        <v>7.874794459266673</v>
       </c>
       <c r="M15">
-        <v>16.49298873259165</v>
+        <v>15.71769678743273</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.87311878857148</v>
+        <v>13.07583764667121</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.62850979813664</v>
+        <v>26.16857406510901</v>
       </c>
       <c r="C16">
-        <v>12.06468310765908</v>
+        <v>15.1064492350133</v>
       </c>
       <c r="D16">
-        <v>9.945219008275989</v>
+        <v>6.262115411053393</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>29.72091811806928</v>
+        <v>18.79320125626062</v>
       </c>
       <c r="G16">
-        <v>29.02649884616486</v>
+        <v>20.53009215899658</v>
       </c>
       <c r="H16">
-        <v>14.38728426541563</v>
+        <v>8.052589745167845</v>
       </c>
       <c r="I16">
-        <v>22.42397044188238</v>
+        <v>11.72010248307778</v>
       </c>
       <c r="J16">
-        <v>10.53714726600096</v>
+        <v>6.09408861614975</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.77747655613562</v>
+        <v>7.778617028032762</v>
       </c>
       <c r="M16">
-        <v>16.38193965617891</v>
+        <v>15.29789314505198</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.93074214042347</v>
+        <v>13.07837275071825</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.3853375252234</v>
+        <v>25.63177970892935</v>
       </c>
       <c r="C17">
-        <v>11.97661079500429</v>
+        <v>14.89059459068591</v>
       </c>
       <c r="D17">
-        <v>9.947591186051881</v>
+        <v>6.232954727685438</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>29.76264182192724</v>
+        <v>18.7439274429242</v>
       </c>
       <c r="G17">
-        <v>29.06970640613309</v>
+        <v>20.3876044383603</v>
       </c>
       <c r="H17">
-        <v>14.40906498552548</v>
+        <v>8.082164597116705</v>
       </c>
       <c r="I17">
-        <v>22.47792057210122</v>
+        <v>11.85757478625811</v>
       </c>
       <c r="J17">
-        <v>10.54697709057359</v>
+        <v>6.122504186958324</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.77350662383528</v>
+        <v>7.719723339806557</v>
       </c>
       <c r="M17">
-        <v>16.31368858703945</v>
+        <v>15.03523961816803</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.96748286389423</v>
+        <v>13.08514513531688</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.24387065438736</v>
+        <v>25.31807171587842</v>
       </c>
       <c r="C18">
-        <v>11.92563728678734</v>
+        <v>14.76512986689485</v>
       </c>
       <c r="D18">
-        <v>9.949071766379767</v>
+        <v>6.216379845517515</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>29.78737946896513</v>
+        <v>18.71807697891489</v>
       </c>
       <c r="G18">
-        <v>29.09560654108995</v>
+        <v>20.30926260821223</v>
       </c>
       <c r="H18">
-        <v>14.42183677394699</v>
+        <v>8.099925282424399</v>
       </c>
       <c r="I18">
-        <v>22.50941020277232</v>
+        <v>11.9378101165653</v>
       </c>
       <c r="J18">
-        <v>10.55270993325608</v>
+        <v>6.138965078674423</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.77133726110182</v>
+        <v>7.685897146912627</v>
       </c>
       <c r="M18">
-        <v>16.27439543250092</v>
+        <v>14.88230598938931</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.98912544077533</v>
+        <v>13.09089948027379</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.19570087247255</v>
+        <v>25.21100207467889</v>
       </c>
       <c r="C19">
-        <v>11.90832543847108</v>
+        <v>14.72242672707547</v>
       </c>
       <c r="D19">
-        <v>9.94959303751215</v>
+        <v>6.210802015561574</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.79588205444853</v>
+        <v>18.7097471148553</v>
       </c>
       <c r="G19">
-        <v>29.10455555709101</v>
+        <v>20.28335394455931</v>
       </c>
       <c r="H19">
-        <v>14.42620300509818</v>
+        <v>8.106065297062614</v>
       </c>
       <c r="I19">
-        <v>22.52015091266237</v>
+        <v>11.96517270560755</v>
       </c>
       <c r="J19">
-        <v>10.55466455776034</v>
+        <v>6.144558721695638</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.77062238946905</v>
+        <v>7.674453198215685</v>
       </c>
       <c r="M19">
-        <v>16.26108599393671</v>
+        <v>14.83020736604944</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.99654081340723</v>
+        <v>13.09316156254766</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.41139007759656</v>
+        <v>25.6894350608913</v>
       </c>
       <c r="C20">
-        <v>11.98601931930802</v>
+        <v>14.91370886641771</v>
       </c>
       <c r="D20">
-        <v>9.947326645772387</v>
+        <v>6.236038533844343</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>29.75812371974068</v>
+        <v>18.74891376185469</v>
       </c>
       <c r="G20">
-        <v>29.06499830618112</v>
+        <v>20.40239759344467</v>
       </c>
       <c r="H20">
-        <v>14.40672112773184</v>
+        <v>8.078938138704082</v>
       </c>
       <c r="I20">
-        <v>22.47212999880664</v>
+        <v>11.84281914612994</v>
       </c>
       <c r="J20">
-        <v>10.54592251791502</v>
+        <v>6.119467232173773</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.77391743972512</v>
+        <v>7.725987903529094</v>
       </c>
       <c r="M20">
-        <v>16.32095806572435</v>
+        <v>15.06339271754668</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.96351892104989</v>
+        <v>13.08423048385411</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.1167171583991</v>
+        <v>27.23781301084561</v>
       </c>
       <c r="C21">
-        <v>12.2431838015657</v>
+        <v>15.54057862979963</v>
       </c>
       <c r="D21">
-        <v>9.941098266800614</v>
+        <v>6.323174664161088</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.64010297978207</v>
+        <v>18.91062998435559</v>
       </c>
       <c r="G21">
-        <v>28.94464292097758</v>
+        <v>20.84580525650023</v>
       </c>
       <c r="H21">
-        <v>14.34418113008588</v>
+        <v>7.99692768494926</v>
       </c>
       <c r="I21">
-        <v>22.31626691042366</v>
+        <v>11.44594888827114</v>
       </c>
       <c r="J21">
-        <v>10.51749299132795</v>
+        <v>6.036548318537656</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.78634698205807</v>
+        <v>7.899652457876963</v>
       </c>
       <c r="M21">
-        <v>16.52161284066838</v>
+        <v>15.82448615164736</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.85867214593064</v>
+        <v>13.07684343284711</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.56275186390265</v>
+        <v>28.20606612348857</v>
       </c>
       <c r="C22">
-        <v>12.40815883860311</v>
+        <v>15.93817038063437</v>
       </c>
       <c r="D22">
-        <v>9.938057337769036</v>
+        <v>6.381834579585663</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.56958081496439</v>
+        <v>19.03957986798394</v>
       </c>
       <c r="G22">
-        <v>28.87539854237577</v>
+        <v>21.16851032181123</v>
       </c>
       <c r="H22">
-        <v>14.30548143520642</v>
+        <v>7.950538446340455</v>
       </c>
       <c r="I22">
-        <v>22.21847997471069</v>
+        <v>11.19791362437527</v>
       </c>
       <c r="J22">
-        <v>10.49961240602781</v>
+        <v>5.98335837429976</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.7954740121019</v>
+        <v>8.013408418775958</v>
       </c>
       <c r="M22">
-        <v>16.65222503768569</v>
+        <v>16.3049642161909</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.79470931480719</v>
+        <v>13.08980373853231</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.32609189438492</v>
+        <v>27.69326762805224</v>
       </c>
       <c r="C23">
-        <v>12.32040486037802</v>
+        <v>15.72709421426931</v>
       </c>
       <c r="D23">
-        <v>9.939586362467525</v>
+        <v>6.350372448191434</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.60661356500694</v>
+        <v>18.96857881553403</v>
       </c>
       <c r="G23">
-        <v>28.91149036070665</v>
+        <v>20.9932360471885</v>
       </c>
       <c r="H23">
-        <v>14.3259372748158</v>
+        <v>7.97461096655838</v>
       </c>
       <c r="I23">
-        <v>22.27029789559286</v>
+        <v>11.32920467549057</v>
       </c>
       <c r="J23">
-        <v>10.50909175765992</v>
+        <v>6.011657093076341</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.79051150514623</v>
+        <v>7.952679225846556</v>
       </c>
       <c r="M23">
-        <v>16.5825726112094</v>
+        <v>16.05008864930634</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.82842938362489</v>
+        <v>13.08119964350178</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.39961689336808</v>
+        <v>25.66338495959834</v>
       </c>
       <c r="C24">
-        <v>11.98176678000518</v>
+        <v>14.90326315520248</v>
       </c>
       <c r="D24">
-        <v>9.947445880622267</v>
+        <v>6.234643752798528</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.76016401744542</v>
+        <v>18.74665174188481</v>
       </c>
       <c r="G24">
-        <v>29.06712353870992</v>
+        <v>20.39569847784715</v>
       </c>
       <c r="H24">
-        <v>14.40778000784451</v>
+        <v>8.080394466217871</v>
       </c>
       <c r="I24">
-        <v>22.47474644358362</v>
+        <v>11.84948644126111</v>
       </c>
       <c r="J24">
-        <v>10.54639903616456</v>
+        <v>6.120839851515892</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.77373135773882</v>
+        <v>7.723155590879943</v>
       </c>
       <c r="M24">
-        <v>16.31767170258288</v>
+        <v>15.05067071042668</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.96530940050605</v>
+        <v>13.08463821550838</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.33962072398278</v>
+        <v>23.28402472086763</v>
       </c>
       <c r="C25">
-        <v>11.60457105198225</v>
+        <v>13.96489088318031</v>
       </c>
       <c r="D25">
-        <v>9.960367294137939</v>
+        <v>6.117389416612747</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.95403922317672</v>
+        <v>18.60172805667324</v>
       </c>
       <c r="G25">
-        <v>29.27502438415561</v>
+        <v>19.88851162917404</v>
       </c>
       <c r="H25">
-        <v>14.50539308338026</v>
+        <v>8.222904184999518</v>
       </c>
       <c r="I25">
-        <v>22.71282959623653</v>
+        <v>12.45487799747708</v>
       </c>
       <c r="J25">
-        <v>10.58966312356299</v>
+        <v>6.243106346226537</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.75999724982064</v>
+        <v>7.477521537154486</v>
       </c>
       <c r="M25">
-        <v>16.03064061762145</v>
+        <v>13.90180026742918</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.13245625636194</v>
+        <v>13.15868326833254</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.36630246802598</v>
+        <v>17.89988271719395</v>
       </c>
       <c r="C2">
-        <v>13.23419214769866</v>
+        <v>15.20464765522995</v>
       </c>
       <c r="D2">
-        <v>6.037779815674494</v>
+        <v>3.549424156985747</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18.56966887513901</v>
+        <v>22.50782930279446</v>
       </c>
       <c r="G2">
-        <v>19.62687063960689</v>
+        <v>31.12126366058358</v>
       </c>
       <c r="H2">
-        <v>8.349683410586715</v>
+        <v>2.027307111867305</v>
       </c>
       <c r="I2">
-        <v>12.93475411628057</v>
+        <v>3.598945580437508</v>
       </c>
       <c r="J2">
-        <v>6.337217274217465</v>
+        <v>9.849337796441688</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.53792517575404</v>
       </c>
       <c r="L2">
-        <v>7.299282158522019</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.99773662758325</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.26700012753909</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>28.51128950852524</v>
+      </c>
+      <c r="P2">
+        <v>11.72149339401853</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.96201694674138</v>
+        <v>16.73467060143156</v>
       </c>
       <c r="C3">
-        <v>12.71617850847973</v>
+        <v>14.29041352032664</v>
       </c>
       <c r="D3">
-        <v>5.988109380181797</v>
+        <v>3.482287574902152</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.59089202000009</v>
+        <v>21.50300943607775</v>
       </c>
       <c r="G3">
-        <v>19.51496946870772</v>
+        <v>29.52005480437312</v>
       </c>
       <c r="H3">
-        <v>8.448059892099858</v>
+        <v>1.788207430761042</v>
       </c>
       <c r="I3">
-        <v>13.27980117983596</v>
+        <v>3.402968290264925</v>
       </c>
       <c r="J3">
-        <v>6.403651586923596</v>
+        <v>9.654701108804154</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.34984063892077</v>
       </c>
       <c r="L3">
-        <v>7.180629989467821</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.35081077266316</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.37063773855996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>26.71400547032264</v>
+      </c>
+      <c r="P3">
+        <v>11.87689716725122</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.04781438973755</v>
+        <v>15.97414569223108</v>
       </c>
       <c r="C4">
-        <v>12.38770027195853</v>
+        <v>13.70254417805815</v>
       </c>
       <c r="D4">
-        <v>5.959746237304872</v>
+        <v>3.440019069461171</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18.62384062022383</v>
+        <v>20.87369693512607</v>
       </c>
       <c r="G4">
-        <v>19.47677474919265</v>
+        <v>28.50801480354432</v>
       </c>
       <c r="H4">
-        <v>8.514251890289474</v>
+        <v>1.637087205757387</v>
       </c>
       <c r="I4">
-        <v>13.50106523438734</v>
+        <v>3.279214604421885</v>
       </c>
       <c r="J4">
-        <v>6.445785013377479</v>
+        <v>9.537645705099591</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.23824917870196</v>
       </c>
       <c r="L4">
-        <v>7.109008709053785</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.93763225390566</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.44810342716126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>25.55061158514952</v>
+      </c>
+      <c r="P4">
+        <v>11.97313845395526</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.66215607054543</v>
+        <v>15.64638178123227</v>
       </c>
       <c r="C5">
-        <v>12.25136992594311</v>
+        <v>13.46304983132451</v>
       </c>
       <c r="D5">
-        <v>5.948727660562075</v>
+        <v>3.423706177731932</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.64208259854155</v>
+        <v>20.60314201198829</v>
       </c>
       <c r="G5">
-        <v>19.46859272844769</v>
+        <v>28.06806806442485</v>
       </c>
       <c r="H5">
-        <v>8.542631478480898</v>
+        <v>1.574317976154436</v>
       </c>
       <c r="I5">
-        <v>13.59354894397238</v>
+        <v>3.22803454872093</v>
       </c>
       <c r="J5">
-        <v>6.463296925220171</v>
+        <v>9.486719166693995</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.18530682534567</v>
       </c>
       <c r="L5">
-        <v>7.080158934644619</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.76541453755689</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.48299280037093</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>25.06136623683726</v>
+      </c>
+      <c r="P5">
+        <v>12.01200214069787</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.59732454029917</v>
+        <v>15.58336272335588</v>
       </c>
       <c r="C6">
-        <v>12.22858767413122</v>
+        <v>13.4311021032016</v>
       </c>
       <c r="D6">
-        <v>5.94693069097522</v>
+        <v>3.422416281708403</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>18.64539677060883</v>
+        <v>20.54417950626008</v>
       </c>
       <c r="G6">
-        <v>19.4676710273144</v>
+        <v>27.96922765161422</v>
       </c>
       <c r="H6">
-        <v>8.547427400507308</v>
+        <v>1.563733936827191</v>
       </c>
       <c r="I6">
-        <v>13.60904447134375</v>
+        <v>3.219815099097826</v>
       </c>
       <c r="J6">
-        <v>6.466225565600348</v>
+        <v>9.473568596735554</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.16626071471484</v>
       </c>
       <c r="L6">
-        <v>7.075389549829729</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.7365913183496</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.48898226902601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>24.97906690669306</v>
+      </c>
+      <c r="P6">
+        <v>12.01776663952563</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.04266641989945</v>
+        <v>15.94867796025799</v>
       </c>
       <c r="C7">
-        <v>12.38587147823509</v>
+        <v>13.72131679274511</v>
       </c>
       <c r="D7">
-        <v>5.959595448911029</v>
+        <v>3.443715992616143</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.62406739947082</v>
+        <v>20.83271189491918</v>
       </c>
       <c r="G7">
-        <v>19.47663491374463</v>
+        <v>28.43397595978001</v>
       </c>
       <c r="H7">
-        <v>8.514628998679202</v>
+        <v>1.635992977350307</v>
       </c>
       <c r="I7">
-        <v>13.50230317885292</v>
+        <v>3.279140409231855</v>
       </c>
       <c r="J7">
-        <v>6.446019793561825</v>
+        <v>9.524104566637339</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.20946272877007</v>
       </c>
       <c r="L7">
-        <v>7.108618233373789</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.93532498299993</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.44856071262733</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>25.54366161445851</v>
+      </c>
+      <c r="P7">
+        <v>11.97179892980098</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.89286080670737</v>
+        <v>17.48161786495395</v>
       </c>
       <c r="C8">
-        <v>13.05782481853345</v>
+        <v>14.92198573268933</v>
       </c>
       <c r="D8">
-        <v>6.020212377977637</v>
+        <v>3.531675302003216</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18.5727377748198</v>
+        <v>22.11728514438833</v>
       </c>
       <c r="G8">
-        <v>19.58178813654756</v>
+        <v>30.4907391742065</v>
       </c>
       <c r="H8">
-        <v>8.382371327307469</v>
+        <v>1.94542429567996</v>
       </c>
       <c r="I8">
-        <v>13.05174330041794</v>
+        <v>3.532472566671673</v>
       </c>
       <c r="J8">
-        <v>6.359848017517302</v>
+        <v>9.765118494061289</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.43566166916829</v>
       </c>
       <c r="L8">
-        <v>7.258131392710256</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.77808255298302</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.29976807028177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>27.90350288157601</v>
+      </c>
+      <c r="P8">
+        <v>11.77270941324371</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.11110668352056</v>
+        <v>20.16588705234958</v>
       </c>
       <c r="C9">
-        <v>14.28739129813685</v>
+        <v>17.03065627397845</v>
       </c>
       <c r="D9">
-        <v>6.155855266496451</v>
+        <v>3.688586259789846</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>18.63848889074633</v>
+        <v>24.58754897424025</v>
       </c>
       <c r="G9">
-        <v>20.04149841070796</v>
+        <v>34.38926264367979</v>
       </c>
       <c r="H9">
-        <v>8.171340552093898</v>
+        <v>2.519649250807086</v>
       </c>
       <c r="I9">
-        <v>12.24542378293527</v>
+        <v>4.003002682466427</v>
       </c>
       <c r="J9">
-        <v>6.201300224722144</v>
+        <v>10.27830744070794</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.95996671053269</v>
       </c>
       <c r="L9">
-        <v>7.559922641747814</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>14.29805401151085</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.12493674303453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>32.05727005914536</v>
+      </c>
+      <c r="P9">
+        <v>11.39081338633006</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.22915570415608</v>
+        <v>22.00948696202545</v>
       </c>
       <c r="C10">
-        <v>15.13090051272115</v>
+        <v>18.52042787158493</v>
       </c>
       <c r="D10">
-        <v>6.265469459419237</v>
+        <v>3.813649157226461</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>18.79916504826702</v>
+        <v>26.20011512915246</v>
       </c>
       <c r="G10">
-        <v>20.54684354337191</v>
+        <v>36.87151118248593</v>
       </c>
       <c r="H10">
-        <v>8.049318429769524</v>
+        <v>2.864438681843572</v>
       </c>
       <c r="I10">
-        <v>11.70457678753844</v>
+        <v>4.330127675958923</v>
       </c>
       <c r="J10">
-        <v>6.090861924299187</v>
+        <v>10.61864955411452</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.26072792292775</v>
       </c>
       <c r="L10">
-        <v>7.785343099438458</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>15.3276100054433</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.07785610504581</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>33.93610046163119</v>
+      </c>
+      <c r="P10">
+        <v>11.10938663417122</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.14003456291108</v>
+        <v>23.56747877137719</v>
       </c>
       <c r="C11">
-        <v>15.50065768763195</v>
+        <v>19.69814565780409</v>
       </c>
       <c r="D11">
-        <v>6.317427852867199</v>
+        <v>3.996554094052982</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.89881163172009</v>
+        <v>25.96775941662901</v>
       </c>
       <c r="G11">
-        <v>20.81516452707238</v>
+        <v>36.29160147338126</v>
       </c>
       <c r="H11">
-        <v>8.001830207245945</v>
+        <v>3.267428839301585</v>
       </c>
       <c r="I11">
-        <v>11.4710209775876</v>
+        <v>4.444273259730644</v>
       </c>
       <c r="J11">
-        <v>6.041862295520519</v>
+        <v>10.40724132714077</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.57251322642218</v>
       </c>
       <c r="L11">
-        <v>7.888381721733571</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>15.77615086393369</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.07630453300604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>27.24110941900063</v>
+      </c>
+      <c r="P11">
+        <v>11.01518667941879</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.4774615667342</v>
+        <v>24.53117134796918</v>
       </c>
       <c r="C12">
-        <v>15.63860390286013</v>
+        <v>20.35987635254006</v>
       </c>
       <c r="D12">
-        <v>6.337397566006082</v>
+        <v>4.123903042072071</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>18.940524735495</v>
+        <v>25.48032810853645</v>
       </c>
       <c r="G12">
-        <v>20.9224133989615</v>
+        <v>35.37130475595951</v>
       </c>
       <c r="H12">
-        <v>7.985077599368161</v>
+        <v>4.295368123501177</v>
       </c>
       <c r="I12">
-        <v>11.38451019506891</v>
+        <v>4.479611365607573</v>
       </c>
       <c r="J12">
-        <v>6.023479653112923</v>
+        <v>10.16962874634457</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.95985343530521</v>
       </c>
       <c r="L12">
-        <v>7.927445974276259</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>15.94309989902681</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.07875461669518</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>21.26025789295641</v>
+      </c>
+      <c r="P12">
+        <v>11.06163607914174</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.40512325557383</v>
+        <v>25.10336028005322</v>
       </c>
       <c r="C13">
-        <v>15.60898781879966</v>
+        <v>20.71024826796985</v>
       </c>
       <c r="D13">
-        <v>6.333083760233442</v>
+        <v>4.221843165227806</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>18.93136167317724</v>
+        <v>24.69861420275492</v>
       </c>
       <c r="G13">
-        <v>20.89906307151338</v>
+        <v>34.00931913448014</v>
       </c>
       <c r="H13">
-        <v>7.988629587185857</v>
+        <v>5.523165566687664</v>
       </c>
       <c r="I13">
-        <v>11.40305346488951</v>
+        <v>4.457247423685169</v>
       </c>
       <c r="J13">
-        <v>6.027431108194172</v>
+        <v>9.873298903354295</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.31913475702705</v>
       </c>
       <c r="L13">
-        <v>7.919031139101559</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>15.90727430275167</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.07808898337332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.31606112191123</v>
+      </c>
+      <c r="P13">
+        <v>11.20568770733394</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.16794487423522</v>
+        <v>25.33033586777684</v>
       </c>
       <c r="C14">
-        <v>15.51204847946476</v>
+        <v>20.82483827463168</v>
       </c>
       <c r="D14">
-        <v>6.319064917905479</v>
+        <v>4.27885552747847</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>18.9021627700353</v>
+        <v>23.99889543640191</v>
       </c>
       <c r="G14">
-        <v>20.82387435908976</v>
+        <v>32.82037045054635</v>
       </c>
       <c r="H14">
-        <v>8.000426848824741</v>
+        <v>6.4428688081232</v>
       </c>
       <c r="I14">
-        <v>11.46386409114006</v>
+        <v>4.416588622553183</v>
       </c>
       <c r="J14">
-        <v>6.04034652200489</v>
+        <v>9.633808612694166</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.84934233955321</v>
       </c>
       <c r="L14">
-        <v>7.89159478339785</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>15.78994431945104</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.07644419310921</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.1869097136317</v>
+      </c>
+      <c r="P14">
+        <v>11.35319339942649</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.02169113312504</v>
+        <v>25.29730168232678</v>
       </c>
       <c r="C15">
-        <v>15.45239866096362</v>
+        <v>20.79444584549992</v>
       </c>
       <c r="D15">
-        <v>6.310516073829561</v>
+        <v>4.287780226426195</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.88480035516537</v>
+        <v>23.75080275123555</v>
       </c>
       <c r="G15">
-        <v>20.77855659964993</v>
+        <v>32.40875097500758</v>
       </c>
       <c r="H15">
-        <v>8.007815576770353</v>
+        <v>6.681114479833264</v>
       </c>
       <c r="I15">
-        <v>11.50136843320382</v>
+        <v>4.393750049889817</v>
       </c>
       <c r="J15">
-        <v>6.048279869810111</v>
+        <v>9.558703395127132</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.72053145846622</v>
       </c>
       <c r="L15">
-        <v>7.874794459266673</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>15.71769678743273</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.07583764667121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.18795798452733</v>
+      </c>
+      <c r="P15">
+        <v>11.40161364606752</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.16857406510901</v>
+        <v>24.47183389200168</v>
       </c>
       <c r="C16">
-        <v>15.1064492350133</v>
+        <v>20.15374914927461</v>
       </c>
       <c r="D16">
-        <v>6.262115411053393</v>
+        <v>4.217745669431219</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.79320125626062</v>
+        <v>23.14693877933539</v>
       </c>
       <c r="G16">
-        <v>20.53009215899658</v>
+        <v>31.48584394568257</v>
       </c>
       <c r="H16">
-        <v>8.052589745167845</v>
+        <v>6.462960465989203</v>
       </c>
       <c r="I16">
-        <v>11.72010248307778</v>
+        <v>4.260353926584701</v>
       </c>
       <c r="J16">
-        <v>6.09408861614975</v>
+        <v>9.451305588796595</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.68882363777913</v>
       </c>
       <c r="L16">
-        <v>7.778617028032762</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>15.29789314505198</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.07837275071825</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.13995445361481</v>
+      </c>
+      <c r="P16">
+        <v>11.46923320192135</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.63177970892935</v>
+        <v>23.69435710131729</v>
       </c>
       <c r="C17">
-        <v>14.89059459068591</v>
+        <v>19.58777087589364</v>
       </c>
       <c r="D17">
-        <v>6.232954727685438</v>
+        <v>4.132711113843684</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.7439274429242</v>
+        <v>23.07010639475445</v>
       </c>
       <c r="G17">
-        <v>20.3876044383603</v>
+        <v>31.43709583614378</v>
       </c>
       <c r="H17">
-        <v>8.082164597116705</v>
+        <v>5.700868122733515</v>
       </c>
       <c r="I17">
-        <v>11.85757478625811</v>
+        <v>4.178917559421446</v>
       </c>
       <c r="J17">
-        <v>6.122504186958324</v>
+        <v>9.500425498093906</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.91818781013393</v>
       </c>
       <c r="L17">
-        <v>7.719723339806557</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>15.03523961816803</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.08514513531688</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.35055454640647</v>
+      </c>
+      <c r="P17">
+        <v>11.44395854518402</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.31807171587842</v>
+        <v>22.89230094181005</v>
       </c>
       <c r="C18">
-        <v>14.76512986689485</v>
+        <v>19.0110402341659</v>
       </c>
       <c r="D18">
-        <v>6.216379845517515</v>
+        <v>4.023215798704803</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.71807697891489</v>
+        <v>23.46816372632766</v>
       </c>
       <c r="G18">
-        <v>20.30926260821223</v>
+        <v>32.19278874807137</v>
       </c>
       <c r="H18">
-        <v>8.099925282424399</v>
+        <v>4.471923293425244</v>
       </c>
       <c r="I18">
-        <v>11.9378101165653</v>
+        <v>4.135420153494689</v>
       </c>
       <c r="J18">
-        <v>6.138965078674423</v>
+        <v>9.696909946471367</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.4158915086308</v>
       </c>
       <c r="L18">
-        <v>7.685897146912627</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.88230598938931</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.09089948027379</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.98216997792742</v>
+      </c>
+      <c r="P18">
+        <v>11.36042111073237</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.21100207467889</v>
+        <v>22.10628712405359</v>
       </c>
       <c r="C19">
-        <v>14.72242672707547</v>
+        <v>18.508461769358</v>
       </c>
       <c r="D19">
-        <v>6.210802015561574</v>
+        <v>3.914149208876674</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.7097471148553</v>
+        <v>24.15220866140367</v>
       </c>
       <c r="G19">
-        <v>20.28335394455931</v>
+        <v>33.42305657058053</v>
       </c>
       <c r="H19">
-        <v>8.106065297062614</v>
+        <v>3.235463559845392</v>
       </c>
       <c r="I19">
-        <v>11.96517270560755</v>
+        <v>4.134771011924547</v>
       </c>
       <c r="J19">
-        <v>6.144558721695638</v>
+        <v>9.971939116153436</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.04432279141546</v>
       </c>
       <c r="L19">
-        <v>7.674453198215685</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.83020736604944</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.09316156254766</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>23.27201200468361</v>
+      </c>
+      <c r="P19">
+        <v>11.27935066974313</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.6894350608913</v>
+        <v>21.4935297210074</v>
       </c>
       <c r="C20">
-        <v>14.91370886641771</v>
+        <v>18.19489403168173</v>
       </c>
       <c r="D20">
-        <v>6.236038533844343</v>
+        <v>3.793932463191714</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>18.74891376185469</v>
+        <v>25.68104134952515</v>
       </c>
       <c r="G20">
-        <v>20.40239759344467</v>
+        <v>36.0507994810855</v>
       </c>
       <c r="H20">
-        <v>8.078938138704082</v>
+        <v>2.770639147453637</v>
       </c>
       <c r="I20">
-        <v>11.84281914612994</v>
+        <v>4.247893331709783</v>
       </c>
       <c r="J20">
-        <v>6.119467232173773</v>
+        <v>10.49029250506165</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.09420109938151</v>
       </c>
       <c r="L20">
-        <v>7.725987903529094</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>15.06339271754668</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.08423048385411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>33.41281657995908</v>
+      </c>
+      <c r="P20">
+        <v>11.1792990127982</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.23781301084561</v>
+        <v>22.71012062236012</v>
       </c>
       <c r="C21">
-        <v>15.54057862979963</v>
+        <v>19.19201334996828</v>
       </c>
       <c r="D21">
-        <v>6.323174664161088</v>
+        <v>3.864513073338646</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.91062998435559</v>
+        <v>27.07923497651359</v>
       </c>
       <c r="G21">
-        <v>20.84580525650023</v>
+        <v>38.23638271189942</v>
       </c>
       <c r="H21">
-        <v>7.99692768494926</v>
+        <v>3.122109815770534</v>
       </c>
       <c r="I21">
-        <v>11.44594888827114</v>
+        <v>4.501257437236829</v>
       </c>
       <c r="J21">
-        <v>6.036548318537656</v>
+        <v>10.82565030547632</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.49214329630762</v>
       </c>
       <c r="L21">
-        <v>7.899652457876963</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>15.82448615164736</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.07684343284711</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>36.14576994730741</v>
+      </c>
+      <c r="P21">
+        <v>10.96841574768094</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.20606612348857</v>
+        <v>23.53503646614836</v>
       </c>
       <c r="C22">
-        <v>15.93817038063437</v>
+        <v>19.83152295324056</v>
       </c>
       <c r="D22">
-        <v>6.381834579585663</v>
+        <v>3.911514475375036</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19.03957986798394</v>
+        <v>27.95799967563195</v>
       </c>
       <c r="G22">
-        <v>21.16851032181123</v>
+        <v>39.59972357025529</v>
       </c>
       <c r="H22">
-        <v>7.950538446340455</v>
+        <v>3.318645244049076</v>
       </c>
       <c r="I22">
-        <v>11.19791362437527</v>
+        <v>4.661323673019193</v>
       </c>
       <c r="J22">
-        <v>5.98335837429976</v>
+        <v>11.03986692136942</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.7422260850257</v>
       </c>
       <c r="L22">
-        <v>8.013408418775958</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>16.3049642161909</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.08980373853231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>37.42309197554639</v>
+      </c>
+      <c r="P22">
+        <v>10.83075870673666</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.69326762805224</v>
+        <v>23.11640142337014</v>
       </c>
       <c r="C23">
-        <v>15.72709421426931</v>
+        <v>19.47307210984485</v>
       </c>
       <c r="D23">
-        <v>6.350372448191434</v>
+        <v>3.882010507073935</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>18.96857881553403</v>
+        <v>27.52498842491227</v>
       </c>
       <c r="G23">
-        <v>20.9932360471885</v>
+        <v>38.93589089049673</v>
       </c>
       <c r="H23">
-        <v>7.97461096655838</v>
+        <v>3.214246546838087</v>
       </c>
       <c r="I23">
-        <v>11.32920467549057</v>
+        <v>4.574916663229643</v>
       </c>
       <c r="J23">
-        <v>6.011657093076341</v>
+        <v>10.93878556269449</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.63870503817343</v>
       </c>
       <c r="L23">
-        <v>7.952679225846556</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>16.05008864930634</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.08119964350178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>36.74639117935177</v>
+      </c>
+      <c r="P23">
+        <v>10.90556402495899</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.66338495959834</v>
+        <v>21.42765055815314</v>
       </c>
       <c r="C24">
-        <v>14.90326315520248</v>
+        <v>18.09947862993288</v>
       </c>
       <c r="D24">
-        <v>6.234643752798528</v>
+        <v>3.775017114395146</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.74665174188481</v>
+        <v>25.79841309320548</v>
       </c>
       <c r="G24">
-        <v>20.39569847784715</v>
+        <v>36.26398897922255</v>
       </c>
       <c r="H24">
-        <v>8.080394466217871</v>
+        <v>2.812992569914972</v>
       </c>
       <c r="I24">
-        <v>11.84948644126111</v>
+        <v>4.245026880842514</v>
       </c>
       <c r="J24">
-        <v>6.120839851515892</v>
+        <v>10.53831038810546</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.20799544223944</v>
       </c>
       <c r="L24">
-        <v>7.723155590879943</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>15.05067071042668</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.08463821550838</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>34.08054698434146</v>
+      </c>
+      <c r="P24">
+        <v>11.18676879409326</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.28402472086763</v>
+        <v>19.4455075717456</v>
       </c>
       <c r="C25">
-        <v>13.96489088318031</v>
+        <v>16.51628197170822</v>
       </c>
       <c r="D25">
-        <v>6.117389416612747</v>
+        <v>3.654143651253276</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>18.60172805667324</v>
+        <v>23.87342410687692</v>
       </c>
       <c r="G25">
-        <v>19.88851162917404</v>
+        <v>33.25693810427163</v>
       </c>
       <c r="H25">
-        <v>8.222904184999518</v>
+        <v>2.367242475179063</v>
       </c>
       <c r="I25">
-        <v>12.45487799747708</v>
+        <v>3.87956277398547</v>
       </c>
       <c r="J25">
-        <v>6.243106346226537</v>
+        <v>10.11579859821382</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.76593139943885</v>
       </c>
       <c r="L25">
-        <v>7.477521537154486</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>13.90180026742918</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.15868326833254</v>
+        <v>30.98356566467217</v>
+      </c>
+      <c r="P25">
+        <v>11.49108215033927</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.89988271719395</v>
+        <v>17.33760160970639</v>
       </c>
       <c r="C2">
-        <v>15.20464765522995</v>
+        <v>15.62050665665524</v>
       </c>
       <c r="D2">
-        <v>3.549424156985747</v>
+        <v>3.705901440737322</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.50782930279446</v>
+        <v>21.60154828675348</v>
       </c>
       <c r="G2">
-        <v>31.12126366058358</v>
+        <v>28.9657564264295</v>
       </c>
       <c r="H2">
-        <v>2.027307111867305</v>
+        <v>2.016503527061205</v>
       </c>
       <c r="I2">
-        <v>3.598945580437508</v>
+        <v>3.525734081486409</v>
       </c>
       <c r="J2">
-        <v>9.849337796441688</v>
+        <v>10.1690876811443</v>
       </c>
       <c r="K2">
-        <v>14.53792517575404</v>
+        <v>13.83573232400728</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.574596574941</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.140494502271478</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.51128950852524</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>11.72149339401853</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>28.49416399346886</v>
+      </c>
+      <c r="R2">
+        <v>11.71155941287745</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.73467060143156</v>
+        <v>16.25807201618546</v>
       </c>
       <c r="C3">
-        <v>14.29041352032664</v>
+        <v>14.6283609877471</v>
       </c>
       <c r="D3">
-        <v>3.482287574902152</v>
+        <v>3.60687368841521</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.50300943607775</v>
+        <v>20.72292705269393</v>
       </c>
       <c r="G3">
-        <v>29.52005480437312</v>
+        <v>27.55256486532942</v>
       </c>
       <c r="H3">
-        <v>1.788207430761042</v>
+        <v>1.781245794179304</v>
       </c>
       <c r="I3">
-        <v>3.402968290264925</v>
+        <v>3.356968832177388</v>
       </c>
       <c r="J3">
-        <v>9.654701108804154</v>
+        <v>9.997279814489508</v>
       </c>
       <c r="K3">
-        <v>14.34984063892077</v>
+        <v>13.73781016692089</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.65340506952426</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.85393239686443</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.71400547032264</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>11.87689716725122</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>26.70277822707845</v>
+      </c>
+      <c r="R3">
+        <v>11.85288722485062</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.97414569223108</v>
+        <v>15.55302646699739</v>
       </c>
       <c r="C4">
-        <v>13.70254417805815</v>
+        <v>13.98926746641423</v>
       </c>
       <c r="D4">
-        <v>3.440019069461171</v>
+        <v>3.544616986031879</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.87369693512607</v>
+        <v>20.17222214628576</v>
       </c>
       <c r="G4">
-        <v>28.50801480354432</v>
+        <v>26.66130723923097</v>
       </c>
       <c r="H4">
-        <v>1.637087205757387</v>
+        <v>1.632516048762461</v>
       </c>
       <c r="I4">
-        <v>3.279214604421885</v>
+        <v>3.250444854972519</v>
       </c>
       <c r="J4">
-        <v>9.537645705099591</v>
+        <v>9.891202360931818</v>
       </c>
       <c r="K4">
-        <v>14.23824917870196</v>
+        <v>13.6801018715297</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.70023507291566</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.699979902566363</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.55061158514952</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>11.97313845395526</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>25.54313832914125</v>
+      </c>
+      <c r="R4">
+        <v>11.94079528953768</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.64638178123227</v>
+        <v>15.24882066108919</v>
       </c>
       <c r="C5">
-        <v>13.46304983132451</v>
+        <v>13.72812031769537</v>
       </c>
       <c r="D5">
-        <v>3.423706177731932</v>
+        <v>3.52015975767385</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.60314201198829</v>
+        <v>19.93429707403583</v>
       </c>
       <c r="G5">
-        <v>28.06806806442485</v>
+        <v>26.27224853330343</v>
       </c>
       <c r="H5">
-        <v>1.574317976154436</v>
+        <v>1.570735700434733</v>
       </c>
       <c r="I5">
-        <v>3.22803454872093</v>
+        <v>3.206696156593713</v>
       </c>
       <c r="J5">
-        <v>9.486719166693995</v>
+        <v>9.844248912083433</v>
       </c>
       <c r="K5">
-        <v>14.18530682534567</v>
+        <v>13.64932475491899</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.71259327730674</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.637490071845064</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.06136623683726</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.01200214069787</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>25.0554723390682</v>
+      </c>
+      <c r="R5">
+        <v>11.97656479239422</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.58336272335588</v>
+        <v>15.19001512686121</v>
       </c>
       <c r="C6">
-        <v>13.4311021032016</v>
+        <v>13.6926050123348</v>
       </c>
       <c r="D6">
-        <v>3.422416281708403</v>
+        <v>3.517625662479563</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.54417950626008</v>
+        <v>19.88124163795817</v>
       </c>
       <c r="G6">
-        <v>27.96922765161422</v>
+        <v>26.18244883502979</v>
       </c>
       <c r="H6">
-        <v>1.563733936827191</v>
+        <v>1.560810484725726</v>
       </c>
       <c r="I6">
-        <v>3.219815099097826</v>
+        <v>3.200091626004866</v>
       </c>
       <c r="J6">
-        <v>9.473568596735554</v>
+        <v>9.832036630426803</v>
       </c>
       <c r="K6">
-        <v>14.16626071471484</v>
+        <v>13.63467337498287</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.70689571848877</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.62052580546418</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.97906690669306</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.01776663952563</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>24.97344915068393</v>
+      </c>
+      <c r="R6">
+        <v>11.98210180625272</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.94867796025799</v>
+        <v>15.51963646082783</v>
       </c>
       <c r="C7">
-        <v>13.72131679274511</v>
+        <v>13.99321307078535</v>
       </c>
       <c r="D7">
-        <v>3.443715992616143</v>
+        <v>3.551569832447851</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.83271189491918</v>
+        <v>20.10817674338803</v>
       </c>
       <c r="G7">
-        <v>28.43397595978001</v>
+        <v>26.67917393826808</v>
       </c>
       <c r="H7">
-        <v>1.635992977350307</v>
+        <v>1.631338751089433</v>
       </c>
       <c r="I7">
-        <v>3.279140409231855</v>
+        <v>3.250657571746195</v>
       </c>
       <c r="J7">
-        <v>9.524104566637339</v>
+        <v>9.821879177746505</v>
       </c>
       <c r="K7">
-        <v>14.20946272877007</v>
+        <v>13.64262093587766</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.67093135628997</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.671489637752008</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.54366161445851</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>11.97179892980098</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>25.53605255056586</v>
+      </c>
+      <c r="R7">
+        <v>11.93984266580472</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.48161786495395</v>
+        <v>16.92173165071227</v>
       </c>
       <c r="C8">
-        <v>14.92198573268933</v>
+        <v>15.26644964344807</v>
       </c>
       <c r="D8">
-        <v>3.531675302003216</v>
+        <v>3.687763823093261</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.11728514438833</v>
+        <v>21.17762861925189</v>
       </c>
       <c r="G8">
-        <v>30.4907391742065</v>
+        <v>28.68157134225601</v>
       </c>
       <c r="H8">
-        <v>1.94542429567996</v>
+        <v>1.93560201026635</v>
       </c>
       <c r="I8">
-        <v>3.532472566671673</v>
+        <v>3.46732302895453</v>
       </c>
       <c r="J8">
-        <v>9.765118494061289</v>
+        <v>9.910836608463205</v>
       </c>
       <c r="K8">
-        <v>14.43566166916829</v>
+        <v>13.73158035166012</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.54947573420986</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.981467974758721</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.90350288157601</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>11.77270941324371</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>27.88785152952177</v>
+      </c>
+      <c r="R8">
+        <v>11.75822830714618</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.16588705234958</v>
+        <v>19.40302408917518</v>
       </c>
       <c r="C9">
-        <v>17.03065627397845</v>
+        <v>17.54414667984918</v>
       </c>
       <c r="D9">
-        <v>3.688586259789846</v>
+        <v>3.92371216365932</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.58754897424025</v>
+        <v>23.32732546804342</v>
       </c>
       <c r="G9">
-        <v>34.38926264367979</v>
+        <v>32.18316936070228</v>
       </c>
       <c r="H9">
-        <v>2.519649250807086</v>
+        <v>2.500257189639147</v>
       </c>
       <c r="I9">
-        <v>4.003002682466427</v>
+        <v>3.871133709539653</v>
       </c>
       <c r="J9">
-        <v>10.27830744070794</v>
+        <v>10.3069940843505</v>
       </c>
       <c r="K9">
-        <v>14.95996671053269</v>
+        <v>14.01275293367478</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.36475787498048</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.813983922420261</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.05727005914536</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>11.39081338633006</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>32.02722049020459</v>
+      </c>
+      <c r="R9">
+        <v>11.41306954492336</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.00948696202545</v>
+        <v>21.07697583350597</v>
       </c>
       <c r="C10">
-        <v>18.52042787158493</v>
+        <v>19.07004934033775</v>
       </c>
       <c r="D10">
-        <v>3.813649157226461</v>
+        <v>4.121297069131316</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.20011512915246</v>
+        <v>24.60934073887174</v>
       </c>
       <c r="G10">
-        <v>36.87151118248593</v>
+        <v>34.84019338880449</v>
       </c>
       <c r="H10">
-        <v>2.864438681843572</v>
+        <v>2.837746525150242</v>
       </c>
       <c r="I10">
-        <v>4.330127675958923</v>
+        <v>4.148902240104223</v>
       </c>
       <c r="J10">
-        <v>10.61864955411452</v>
+        <v>10.2558120343201</v>
       </c>
       <c r="K10">
-        <v>15.26072792292775</v>
+        <v>14.08586645699916</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.12319877985776</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.368143074939047</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.93610046163119</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>11.10938663417122</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>33.89505403177004</v>
+      </c>
+      <c r="R10">
+        <v>11.17164594217917</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.56747877137719</v>
+        <v>22.54907049305152</v>
       </c>
       <c r="C11">
-        <v>19.69814565780409</v>
+        <v>20.1032952455933</v>
       </c>
       <c r="D11">
-        <v>3.996554094052982</v>
+        <v>4.366511398956836</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.96775941662901</v>
+        <v>24.137939207811</v>
       </c>
       <c r="G11">
-        <v>36.29160147338126</v>
+        <v>35.23637378262524</v>
       </c>
       <c r="H11">
-        <v>3.267428839301585</v>
+        <v>3.244961933358179</v>
       </c>
       <c r="I11">
-        <v>4.444273259730644</v>
+        <v>4.242161136352019</v>
       </c>
       <c r="J11">
-        <v>10.40724132714077</v>
+        <v>9.434760928377331</v>
       </c>
       <c r="K11">
-        <v>14.57251322642218</v>
+        <v>13.32564549722</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.49982564374255</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.940735364761748</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.24110941900063</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.01518667941879</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>27.19596098776375</v>
+      </c>
+      <c r="R11">
+        <v>11.19196543142497</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.53117134796918</v>
+        <v>23.49770752825416</v>
       </c>
       <c r="C12">
-        <v>20.35987635254006</v>
+        <v>20.67393422309238</v>
       </c>
       <c r="D12">
-        <v>4.123903042072071</v>
+        <v>4.519895557317279</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.48032810853645</v>
+        <v>23.58682231322268</v>
       </c>
       <c r="G12">
-        <v>35.37130475595951</v>
+        <v>34.85284369879603</v>
       </c>
       <c r="H12">
-        <v>4.295368123501177</v>
+        <v>4.279869128990796</v>
       </c>
       <c r="I12">
-        <v>4.479611365607573</v>
+        <v>4.269632837833829</v>
       </c>
       <c r="J12">
-        <v>10.16962874634457</v>
+        <v>8.956288115404886</v>
       </c>
       <c r="K12">
-        <v>13.95985343530521</v>
+        <v>12.73842616265634</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.0844486750737</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.514188392370357</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.26025789295641</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.06163607914174</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>21.21224093790459</v>
+      </c>
+      <c r="R12">
+        <v>11.32322419121529</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.10336028005322</v>
+        <v>24.12671658176199</v>
       </c>
       <c r="C13">
-        <v>20.71024826796985</v>
+        <v>20.99693400038735</v>
       </c>
       <c r="D13">
-        <v>4.221843165227806</v>
+        <v>4.607610142034106</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.69861420275492</v>
+        <v>22.92692635254101</v>
       </c>
       <c r="G13">
-        <v>34.00931913448014</v>
+        <v>33.55456388051058</v>
       </c>
       <c r="H13">
-        <v>5.523165566687664</v>
+        <v>5.512797922117722</v>
       </c>
       <c r="I13">
-        <v>4.457247423685169</v>
+        <v>4.251833151318684</v>
       </c>
       <c r="J13">
-        <v>9.873298903354295</v>
+        <v>8.797673136858393</v>
       </c>
       <c r="K13">
-        <v>13.31913475702705</v>
+        <v>12.2285054375165</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.78049459754989</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.043540945782375</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.31606112191123</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>11.20568770733394</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.26418527689101</v>
+      </c>
+      <c r="R13">
+        <v>11.51945582979394</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.33033586777684</v>
+        <v>24.42635351448605</v>
       </c>
       <c r="C14">
-        <v>20.82483827463168</v>
+        <v>21.12027748663138</v>
       </c>
       <c r="D14">
-        <v>4.27885552747847</v>
+        <v>4.640436679294329</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>23.99889543640191</v>
+        <v>22.39639238225493</v>
       </c>
       <c r="G14">
-        <v>32.82037045054635</v>
+        <v>32.20374422917473</v>
       </c>
       <c r="H14">
-        <v>6.4428688081232</v>
+        <v>6.444871295825092</v>
       </c>
       <c r="I14">
-        <v>4.416588622553183</v>
+        <v>4.220195476883688</v>
       </c>
       <c r="J14">
-        <v>9.633808612694166</v>
+        <v>8.816780503840853</v>
       </c>
       <c r="K14">
-        <v>12.84934233955321</v>
+        <v>11.8964367560693</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.60844700549571</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.684503076379761</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.1869097136317</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>11.35319339942649</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.12904412015186</v>
+      </c>
+      <c r="R14">
+        <v>11.68311316072425</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.29730168232678</v>
+        <v>24.42571334548214</v>
       </c>
       <c r="C15">
-        <v>20.79444584549992</v>
+        <v>21.10390322739268</v>
       </c>
       <c r="D15">
-        <v>4.287780226426195</v>
+        <v>4.636236978738786</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>23.75080275123555</v>
+        <v>22.22641841193816</v>
       </c>
       <c r="G15">
-        <v>32.40875097500758</v>
+        <v>31.66463033976289</v>
       </c>
       <c r="H15">
-        <v>6.681114479833264</v>
+        <v>6.686358952576195</v>
       </c>
       <c r="I15">
-        <v>4.393750049889817</v>
+        <v>4.20274103367414</v>
       </c>
       <c r="J15">
-        <v>9.558703395127132</v>
+        <v>8.874681535944045</v>
       </c>
       <c r="K15">
-        <v>12.72053145846622</v>
+        <v>11.82131752457797</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.58044357125321</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.579039513009164</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.18795798452733</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>11.40161364606752</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.12836600468351</v>
+      </c>
+      <c r="R15">
+        <v>11.72809667225686</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.47183389200168</v>
+        <v>23.72532505826702</v>
       </c>
       <c r="C16">
-        <v>20.15374914927461</v>
+        <v>20.55869083863041</v>
       </c>
       <c r="D16">
-        <v>4.217745669431219</v>
+        <v>4.505278453289926</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.14693877933539</v>
+        <v>21.93126965576928</v>
       </c>
       <c r="G16">
-        <v>31.48584394568257</v>
+        <v>30.0142410353845</v>
       </c>
       <c r="H16">
-        <v>6.462960465989203</v>
+        <v>6.468045434101096</v>
       </c>
       <c r="I16">
-        <v>4.260353926584701</v>
+        <v>4.095577655107395</v>
       </c>
       <c r="J16">
-        <v>9.451305588796595</v>
+        <v>9.348366477901797</v>
       </c>
       <c r="K16">
-        <v>12.68882363777913</v>
+        <v>11.95103095858609</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.75867394738131</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.483295511342011</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.13995445361481</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>11.46923320192135</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.087715676884</v>
+      </c>
+      <c r="R16">
+        <v>11.73785879826533</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.69435710131729</v>
+        <v>22.99375263210033</v>
       </c>
       <c r="C17">
-        <v>19.58777087589364</v>
+        <v>20.04290676293005</v>
       </c>
       <c r="D17">
-        <v>4.132711113843684</v>
+        <v>4.393155118115498</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.07010639475445</v>
+        <v>21.9670478217698</v>
       </c>
       <c r="G17">
-        <v>31.43709583614378</v>
+        <v>29.60405691016384</v>
       </c>
       <c r="H17">
-        <v>5.700868122733515</v>
+        <v>5.706222059872166</v>
       </c>
       <c r="I17">
-        <v>4.178917559421446</v>
+        <v>4.02868141861066</v>
       </c>
       <c r="J17">
-        <v>9.500425498093906</v>
+        <v>9.633849253564545</v>
       </c>
       <c r="K17">
-        <v>12.91818781013393</v>
+        <v>12.21660988032229</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.98611844872347</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.5936351543858</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.35055454640647</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>11.44395854518402</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.30746066424936</v>
+      </c>
+      <c r="R17">
+        <v>11.66970339662947</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.89230094181005</v>
+        <v>22.18784742006356</v>
       </c>
       <c r="C18">
-        <v>19.0110402341659</v>
+        <v>19.50751462426805</v>
       </c>
       <c r="D18">
-        <v>4.023215798704803</v>
+        <v>4.274232561117334</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.46816372632766</v>
+        <v>22.36381396554091</v>
       </c>
       <c r="G18">
-        <v>32.19278874807137</v>
+        <v>30.11979427786098</v>
       </c>
       <c r="H18">
-        <v>4.471923293425244</v>
+        <v>4.463670427407466</v>
       </c>
       <c r="I18">
-        <v>4.135420153494689</v>
+        <v>3.990881144997655</v>
       </c>
       <c r="J18">
-        <v>9.696909946471367</v>
+        <v>9.900894963498018</v>
       </c>
       <c r="K18">
-        <v>13.4158915086308</v>
+        <v>12.66897488486156</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.31300738940902</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.921805784922048</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.98216997792742</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>11.36042111073237</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.94615587138693</v>
+      </c>
+      <c r="R18">
+        <v>11.54181001282262</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.10628712405359</v>
+        <v>21.36557372809285</v>
       </c>
       <c r="C19">
-        <v>18.508461769358</v>
+        <v>19.04592787424216</v>
       </c>
       <c r="D19">
-        <v>3.914149208876674</v>
+        <v>4.166294664043614</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.15220866140367</v>
+        <v>22.97666059557532</v>
       </c>
       <c r="G19">
-        <v>33.42305657058053</v>
+        <v>31.16320999092612</v>
       </c>
       <c r="H19">
-        <v>3.235463559845392</v>
+        <v>3.222079093364491</v>
       </c>
       <c r="I19">
-        <v>4.134771011924547</v>
+        <v>3.990547718356457</v>
       </c>
       <c r="J19">
-        <v>9.971939116153436</v>
+        <v>10.15669427683236</v>
       </c>
       <c r="K19">
-        <v>14.04432279141546</v>
+        <v>13.20397852286889</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.67652189327423</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.364599465648157</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.27201200468361</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>11.27935066974313</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>23.23867360865184</v>
+      </c>
+      <c r="R19">
+        <v>11.41087264797127</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.4935297210074</v>
+        <v>20.63122600671951</v>
       </c>
       <c r="C20">
-        <v>18.19489403168173</v>
+        <v>18.77689311383589</v>
       </c>
       <c r="D20">
-        <v>3.793932463191714</v>
+        <v>4.072982724749843</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.68104134952515</v>
+        <v>24.25335750737337</v>
       </c>
       <c r="G20">
-        <v>36.0507994810855</v>
+        <v>33.72130503980813</v>
       </c>
       <c r="H20">
-        <v>2.770639147453637</v>
+        <v>2.746278429700129</v>
       </c>
       <c r="I20">
-        <v>4.247893331709783</v>
+        <v>4.08505197669701</v>
       </c>
       <c r="J20">
-        <v>10.49029250506165</v>
+        <v>10.41962466134729</v>
       </c>
       <c r="K20">
-        <v>15.09420109938151</v>
+        <v>14.02363865585699</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.15829417609575</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.183515193040211</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.41281657995908</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>11.1792990127982</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>33.37530614333983</v>
+      </c>
+      <c r="R20">
+        <v>11.23423614383743</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.71012062236012</v>
+        <v>21.58628226962008</v>
       </c>
       <c r="C21">
-        <v>19.19201334996828</v>
+        <v>19.59714076402971</v>
       </c>
       <c r="D21">
-        <v>3.864513073338646</v>
+        <v>4.254811543431932</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.07923497651359</v>
+        <v>25.00483788588575</v>
       </c>
       <c r="G21">
-        <v>38.23638271189942</v>
+        <v>37.32563829144067</v>
       </c>
       <c r="H21">
-        <v>3.122109815770534</v>
+        <v>3.089927729966266</v>
       </c>
       <c r="I21">
-        <v>4.501257437236829</v>
+        <v>4.288337777281821</v>
       </c>
       <c r="J21">
-        <v>10.82565030547632</v>
+        <v>9.496250572427625</v>
       </c>
       <c r="K21">
-        <v>15.49214329630762</v>
+        <v>14.02671566587826</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.93703661510402</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.572558034438416</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>36.14576994730741</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>10.96841574768094</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>36.09649435201593</v>
+      </c>
+      <c r="R21">
+        <v>11.04264314114331</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.53503646614836</v>
+        <v>22.24109527248481</v>
       </c>
       <c r="C22">
-        <v>19.83152295324056</v>
+        <v>20.10996185050773</v>
       </c>
       <c r="D22">
-        <v>3.911514475375036</v>
+        <v>4.378064803581224</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.95799967563195</v>
+        <v>25.45208503198681</v>
       </c>
       <c r="G22">
-        <v>39.59972357025529</v>
+        <v>39.677781153264</v>
       </c>
       <c r="H22">
-        <v>3.318645244049076</v>
+        <v>3.28139329761912</v>
       </c>
       <c r="I22">
-        <v>4.661323673019193</v>
+        <v>4.415027004475655</v>
       </c>
       <c r="J22">
-        <v>11.03986692136942</v>
+        <v>8.851676746208845</v>
       </c>
       <c r="K22">
-        <v>15.7422260850257</v>
+        <v>14.00814720376005</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.77909553672437</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.813188289727197</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>37.42309197554639</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>10.83075870673666</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>37.36612258491603</v>
+      </c>
+      <c r="R22">
+        <v>10.9234478739981</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.11640142337014</v>
+        <v>21.92924029875671</v>
       </c>
       <c r="C23">
-        <v>19.47307210984485</v>
+        <v>19.84711228230305</v>
       </c>
       <c r="D23">
-        <v>3.882010507073935</v>
+        <v>4.299392151308331</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.52498842491227</v>
+        <v>25.29940179119353</v>
       </c>
       <c r="G23">
-        <v>38.93589089049673</v>
+        <v>38.30590868398532</v>
       </c>
       <c r="H23">
-        <v>3.214246546838087</v>
+        <v>3.179899883325958</v>
       </c>
       <c r="I23">
-        <v>4.574916663229643</v>
+        <v>4.346469900972931</v>
       </c>
       <c r="J23">
-        <v>10.93878556269449</v>
+        <v>9.33014808554908</v>
       </c>
       <c r="K23">
-        <v>15.63870503817343</v>
+        <v>14.07270721548516</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.89859750755907</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.731452369679767</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.74639117935177</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>10.90556402495899</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>36.69383414321494</v>
+      </c>
+      <c r="R23">
+        <v>10.98585909064005</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.42765055815314</v>
+        <v>20.56232165911003</v>
       </c>
       <c r="C24">
-        <v>18.09947862993288</v>
+        <v>18.68636693885465</v>
       </c>
       <c r="D24">
-        <v>3.775017114395146</v>
+        <v>4.052450140885592</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>25.79841309320548</v>
+        <v>24.36560807637786</v>
       </c>
       <c r="G24">
-        <v>36.26398897922255</v>
+        <v>33.90365459388796</v>
       </c>
       <c r="H24">
-        <v>2.812992569914972</v>
+        <v>2.788502149263415</v>
       </c>
       <c r="I24">
-        <v>4.245026880842514</v>
+        <v>4.080274580060479</v>
       </c>
       <c r="J24">
-        <v>10.53831038810546</v>
+        <v>10.47164469105459</v>
       </c>
       <c r="K24">
-        <v>15.20799544223944</v>
+        <v>14.1263809836842</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.23083376209686</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.265238942608274</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>34.08054698434146</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>11.18676879409326</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>34.04287964810946</v>
+      </c>
+      <c r="R24">
+        <v>11.23196870258626</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.4455075717456</v>
+        <v>18.74703168022086</v>
       </c>
       <c r="C25">
-        <v>16.51628197170822</v>
+        <v>17.00497470321536</v>
       </c>
       <c r="D25">
-        <v>3.654143651253276</v>
+        <v>3.864638747550068</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.87342410687692</v>
+        <v>22.73164789753907</v>
       </c>
       <c r="G25">
-        <v>33.25693810427163</v>
+        <v>31.04482583436371</v>
       </c>
       <c r="H25">
-        <v>2.367242475179063</v>
+        <v>2.350613297515219</v>
       </c>
       <c r="I25">
-        <v>3.87956277398547</v>
+        <v>3.768087645792526</v>
       </c>
       <c r="J25">
-        <v>10.11579859821382</v>
+        <v>10.25682582857042</v>
       </c>
       <c r="K25">
-        <v>14.76593139943885</v>
+        <v>13.90442237882187</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.39512813429312</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.549508684690524</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.98356566467217</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>11.49108215033927</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>30.95765917259741</v>
+      </c>
+      <c r="R25">
+        <v>11.50507832841827</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
